--- a/forms/app/pev_enfant.xlsx
+++ b/forms/app/pev_enfant.xlsx
@@ -451,6 +451,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">test_context</t>
     </r>
@@ -4752,7 +4753,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4812,24 +4813,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -5103,7 +5091,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -5114,7 +5102,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -5179,11 +5167,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5203,7 +5191,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5267,7 +5255,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5299,7 +5287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5315,11 +5303,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5363,7 +5351,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5383,7 +5371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5399,11 +5387,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5415,7 +5403,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5427,7 +5415,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5463,7 +5451,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5479,19 +5467,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5507,7 +5495,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5519,7 +5507,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7044,11 +7032,11 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
-      <selection pane="bottomRight" activeCell="O78" activeCellId="0" sqref="O78"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -7266,10 +7254,10 @@
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="0"/>
       <c r="J7" s="6"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -7288,10 +7276,10 @@
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0"/>
       <c r="J8" s="6"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
@@ -7310,10 +7298,10 @@
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0"/>
       <c r="J9" s="6"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
@@ -7330,10 +7318,10 @@
       <c r="C10" s="7"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="0"/>
       <c r="J10" s="6"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
@@ -41381,10 +41369,10 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.25"/>
@@ -41426,7 +41414,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f aca="true">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2302141319</v>
+        <v>2302170944</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="70"/>
@@ -41459,7 +41447,7 @@
       <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="36"/>
@@ -45622,7 +45610,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="36"/>
   </cols>
@@ -45717,7 +45705,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="36"/>
   </cols>

--- a/forms/app/pev_enfant.xlsx
+++ b/forms/app/pev_enfant.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="937">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -422,50 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">int(${age_days} div 30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance('contact-summary')/context/form_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_lable</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TEST: ${</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">test_context</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">s_enfant</t>
@@ -7032,11 +6988,11 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="A78" activeCellId="0" sqref="78:78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8129,8 +8085,8 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B31,",date(instance('contact-summary')/context/imm_",B31,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_bcg,date(instance('contact-summary')/context/imm_date_bcg),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B31,"!='',date(instance('contact-summary')/context/imm_",B31,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_bcg!='',date(instance('contact-summary')/context/imm_date_bcg),'')</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -8165,8 +8121,8 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B32,",date(instance('contact-summary')/context/imm_",B32,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vpo0,date(instance('contact-summary')/context/imm_date_vpo0),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B32,"!='',date(instance('contact-summary')/context/imm_",B32,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vpo0!='',date(instance('contact-summary')/context/imm_date_vpo0),'')</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -8201,8 +8157,8 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B33,",date(instance('contact-summary')/context/imm_",B33,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vpo1,date(instance('contact-summary')/context/imm_date_vpo1),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B33,"!='',date(instance('contact-summary')/context/imm_",B33,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vpo1!='',date(instance('contact-summary')/context/imm_date_vpo1),'')</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -8237,8 +8193,8 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B34,",date(instance('contact-summary')/context/imm_",B34,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vpo2,date(instance('contact-summary')/context/imm_date_vpo2),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B34,"!='',date(instance('contact-summary')/context/imm_",B34,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vpo2!='',date(instance('contact-summary')/context/imm_date_vpo2),'')</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -8273,8 +8229,8 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B35,",date(instance('contact-summary')/context/imm_",B35,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vpo3,date(instance('contact-summary')/context/imm_date_vpo3),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B35,"!='',date(instance('contact-summary')/context/imm_",B35,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vpo3!='',date(instance('contact-summary')/context/imm_date_vpo3),'')</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -8309,8 +8265,8 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B36,",date(instance('contact-summary')/context/imm_",B36,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_penta1,date(instance('contact-summary')/context/imm_date_penta1),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B36,"!='',date(instance('contact-summary')/context/imm_",B36,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_penta1!='',date(instance('contact-summary')/context/imm_date_penta1),'')</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
@@ -8345,8 +8301,8 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B37,",date(instance('contact-summary')/context/imm_",B37,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_penta2,date(instance('contact-summary')/context/imm_date_penta2),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B37,"!='',date(instance('contact-summary')/context/imm_",B37,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_penta2!='',date(instance('contact-summary')/context/imm_date_penta2),'')</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -8381,8 +8337,8 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B38,",date(instance('contact-summary')/context/imm_",B38,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_penta3,date(instance('contact-summary')/context/imm_date_penta3),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B38,"!='',date(instance('contact-summary')/context/imm_",B38,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_penta3!='',date(instance('contact-summary')/context/imm_date_penta3),'')</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
@@ -8417,8 +8373,8 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B39,",date(instance('contact-summary')/context/imm_",B39,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vpi,date(instance('contact-summary')/context/imm_date_vpi),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B39,"!='',date(instance('contact-summary')/context/imm_",B39,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vpi!='',date(instance('contact-summary')/context/imm_date_vpi),'')</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
@@ -8453,8 +8409,8 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B40,",date(instance('contact-summary')/context/imm_",B40,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_var,date(instance('contact-summary')/context/imm_date_var),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B40,"!='',date(instance('contact-summary')/context/imm_",B40,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_var!='',date(instance('contact-summary')/context/imm_date_var),'')</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
@@ -8489,8 +8445,8 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B41,",date(instance('contact-summary')/context/imm_",B41,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vaa,date(instance('contact-summary')/context/imm_date_vaa),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B41,"!='',date(instance('contact-summary')/context/imm_",B41,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vaa!='',date(instance('contact-summary')/context/imm_date_vaa),'')</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
@@ -8525,8 +8481,8 @@
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B42,",date(instance('contact-summary')/context/imm_",B42,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_meni,date(instance('contact-summary')/context/imm_date_meni),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B42,"!='',date(instance('contact-summary')/context/imm_",B42,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_meni!='',date(instance('contact-summary')/context/imm_date_meni),'')</v>
       </c>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
@@ -8561,8 +8517,8 @@
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B43,",date(instance('contact-summary')/context/imm_",B43,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_vita,date(instance('contact-summary')/context/imm_date_vita),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B43,"!='',date(instance('contact-summary')/context/imm_",B43,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_vita!='',date(instance('contact-summary')/context/imm_date_vita),'')</v>
       </c>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
@@ -8597,8 +8553,8 @@
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="17" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B44,",date(instance('contact-summary')/context/imm_",B44,"),'')")</f>
-        <v>if(instance('contact-summary')/context/imm_date_meb,date(instance('contact-summary')/context/imm_date_meb),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/imm_",B44,"!='',date(instance('contact-summary')/context/imm_",B44,"),'')")</f>
+        <v>if(instance('contact-summary')/context/imm_date_meb!='',date(instance('contact-summary')/context/imm_date_meb),'')</v>
       </c>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
@@ -8711,12 +8667,8 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -8729,9 +8681,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="O78" s="13"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
@@ -8744,15 +8694,9 @@
       <c r="Y78" s="11"/>
     </row>
     <row r="79" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -9126,10 +9070,10 @@
         <v>25</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -9158,13 +9102,13 @@
     </row>
     <row r="97" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="1"/>
@@ -9178,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -9195,13 +9139,13 @@
     </row>
     <row r="98" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="1"/>
@@ -9210,14 +9154,14 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -9234,13 +9178,13 @@
     </row>
     <row r="99" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="1"/>
@@ -9249,7 +9193,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1" t="n">
@@ -9271,13 +9215,13 @@
     </row>
     <row r="100" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="1"/>
@@ -9286,7 +9230,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="n">
@@ -9311,10 +9255,10 @@
         <v>21</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="1"/>
@@ -9323,7 +9267,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -9346,7 +9290,7 @@
         <v>74</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="23"/>
@@ -9404,10 +9348,10 @@
         <v>25</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>28</v>
@@ -9417,13 +9361,13 @@
     </row>
     <row r="105" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -9432,7 +9376,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1" t="n">
@@ -9457,10 +9401,10 @@
         <v>21</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="1"/>
@@ -9469,7 +9413,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -9489,13 +9433,13 @@
     </row>
     <row r="107" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D107" s="21"/>
       <c r="E107" s="1"/>
@@ -9504,7 +9448,7 @@
       <c r="H107" s="0"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1" t="n">
@@ -9529,7 +9473,7 @@
         <v>75</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C108" s="28"/>
       <c r="D108" s="27"/>
@@ -9544,7 +9488,7 @@
       <c r="M108" s="27"/>
       <c r="N108" s="27"/>
       <c r="O108" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P108" s="27"/>
       <c r="Q108" s="27"/>
@@ -9591,10 +9535,10 @@
         <v>21</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="1"/>
@@ -9603,7 +9547,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -9626,13 +9570,13 @@
         <v>21</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Z111" s="18"/>
       <c r="AA111" s="18"/>
@@ -9642,21 +9586,21 @@
         <v>44</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K112" s="27"/>
       <c r="L112" s="27" t="n">
@@ -9681,7 +9625,7 @@
         <v>74</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Z113" s="18"/>
       <c r="AA113" s="18"/>
@@ -9695,7 +9639,7 @@
         <v>75</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C115" s="30"/>
       <c r="D115" s="24"/>
@@ -9710,7 +9654,7 @@
       <c r="M115" s="24"/>
       <c r="N115" s="24"/>
       <c r="O115" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P115" s="24"/>
       <c r="Q115" s="24"/>
@@ -9730,7 +9674,7 @@
         <v>75</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C116" s="30"/>
       <c r="D116" s="24"/>
@@ -9745,7 +9689,7 @@
       <c r="M116" s="24"/>
       <c r="N116" s="24"/>
       <c r="O116" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P116" s="24"/>
       <c r="Q116" s="24"/>
@@ -9765,7 +9709,7 @@
         <v>75</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C117" s="30"/>
       <c r="D117" s="24"/>
@@ -9780,7 +9724,7 @@
       <c r="M117" s="24"/>
       <c r="N117" s="24"/>
       <c r="O117" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P117" s="24"/>
       <c r="Q117" s="24"/>
@@ -9800,7 +9744,7 @@
         <v>75</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C118" s="30"/>
       <c r="D118" s="24"/>
@@ -9815,7 +9759,7 @@
       <c r="M118" s="24"/>
       <c r="N118" s="24"/>
       <c r="O118" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P118" s="24"/>
       <c r="Q118" s="24"/>
@@ -9835,7 +9779,7 @@
         <v>75</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C119" s="30"/>
       <c r="D119" s="24"/>
@@ -9850,7 +9794,7 @@
       <c r="M119" s="24"/>
       <c r="N119" s="24"/>
       <c r="O119" s="24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P119" s="24"/>
       <c r="Q119" s="24"/>
@@ -9870,7 +9814,7 @@
         <v>75</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C120" s="30"/>
       <c r="D120" s="24"/>
@@ -9885,7 +9829,7 @@
       <c r="M120" s="24"/>
       <c r="N120" s="24"/>
       <c r="O120" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P120" s="24"/>
       <c r="Q120" s="24"/>
@@ -9905,7 +9849,7 @@
         <v>75</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C121" s="30"/>
       <c r="D121" s="24"/>
@@ -9920,7 +9864,7 @@
       <c r="M121" s="24"/>
       <c r="N121" s="24"/>
       <c r="O121" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P121" s="24"/>
       <c r="Q121" s="24"/>
@@ -9940,7 +9884,7 @@
         <v>75</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C122" s="30"/>
       <c r="D122" s="24"/>
@@ -9955,7 +9899,7 @@
       <c r="M122" s="24"/>
       <c r="N122" s="24"/>
       <c r="O122" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P122" s="24"/>
       <c r="Q122" s="24"/>
@@ -9975,11 +9919,11 @@
         <v>75</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C123" s="31"/>
       <c r="O123" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Z123" s="14"/>
       <c r="AA123" s="14"/>
@@ -9989,11 +9933,11 @@
         <v>75</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C124" s="31"/>
       <c r="O124" s="31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Z124" s="14"/>
       <c r="AA124" s="14"/>
@@ -10030,10 +9974,10 @@
         <v>25</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>28</v>
@@ -10046,7 +9990,7 @@
         <v>75</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C127" s="28"/>
       <c r="D127" s="27"/>
@@ -10061,7 +10005,7 @@
       <c r="M127" s="27"/>
       <c r="N127" s="27"/>
       <c r="O127" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -10079,7 +10023,7 @@
         <v>75</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C128" s="28"/>
       <c r="D128" s="27"/>
@@ -10094,7 +10038,7 @@
       <c r="M128" s="27"/>
       <c r="N128" s="27"/>
       <c r="O128" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -10112,7 +10056,7 @@
         <v>75</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C129" s="28"/>
       <c r="D129" s="27"/>
@@ -10127,7 +10071,7 @@
       <c r="M129" s="27"/>
       <c r="N129" s="27"/>
       <c r="O129" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P129" s="27"/>
       <c r="Q129" s="27"/>
@@ -10145,7 +10089,7 @@
         <v>75</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C130" s="28"/>
       <c r="D130" s="27"/>
@@ -10160,7 +10104,7 @@
       <c r="M130" s="27"/>
       <c r="N130" s="27"/>
       <c r="O130" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P130" s="27"/>
       <c r="Q130" s="27"/>
@@ -10196,7 +10140,7 @@
       <c r="T131" s="27"/>
       <c r="U131" s="27"/>
       <c r="V131" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W131" s="27"/>
       <c r="X131" s="27"/>
@@ -10227,7 +10171,7 @@
       <c r="T132" s="27"/>
       <c r="U132" s="27"/>
       <c r="V132" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W132" s="27"/>
       <c r="X132" s="27"/>
@@ -10256,7 +10200,7 @@
       <c r="T133" s="27"/>
       <c r="U133" s="27"/>
       <c r="V133" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W133" s="27"/>
       <c r="X133" s="27"/>
@@ -10287,7 +10231,7 @@
       <c r="T134" s="27"/>
       <c r="U134" s="27"/>
       <c r="V134" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W134" s="27"/>
       <c r="X134" s="27"/>
@@ -10323,13 +10267,13 @@
     </row>
     <row r="136" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -10338,7 +10282,7 @@
       <c r="H136" s="11"/>
       <c r="I136" s="11"/>
       <c r="J136" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K136" s="11"/>
       <c r="L136" s="11" t="n">
@@ -10347,7 +10291,7 @@
       <c r="M136" s="11"/>
       <c r="N136" s="11"/>
       <c r="O136" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
@@ -10394,23 +10338,23 @@
         <v>44</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D138" s="27"/>
       <c r="E138" s="27"/>
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
       <c r="H138" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J138" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K138" s="27"/>
       <c r="L138" s="27" t="n">
@@ -10426,7 +10370,7 @@
       <c r="T138" s="27"/>
       <c r="U138" s="27"/>
       <c r="V138" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W138" s="27"/>
       <c r="X138" s="27"/>
@@ -10437,23 +10381,23 @@
         <v>44</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
       <c r="H139" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J139" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K139" s="27"/>
       <c r="L139" s="27" t="n">
@@ -10469,7 +10413,7 @@
       <c r="T139" s="27"/>
       <c r="U139" s="27"/>
       <c r="V139" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W139" s="27"/>
       <c r="X139" s="27"/>
@@ -10480,23 +10424,23 @@
         <v>44</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D140" s="27"/>
       <c r="E140" s="27"/>
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J140" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K140" s="27"/>
       <c r="L140" s="27" t="n">
@@ -10512,7 +10456,7 @@
       <c r="T140" s="27"/>
       <c r="U140" s="27"/>
       <c r="V140" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W140" s="27"/>
       <c r="X140" s="27"/>
@@ -10523,23 +10467,23 @@
         <v>44</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
       <c r="H141" s="27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J141" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K141" s="27"/>
       <c r="L141" s="27" t="n">
@@ -10555,7 +10499,7 @@
       <c r="T141" s="27"/>
       <c r="U141" s="27"/>
       <c r="V141" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W141" s="27"/>
       <c r="X141" s="27"/>
@@ -10566,12 +10510,12 @@
         <v>75</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C142" s="31"/>
       <c r="J142" s="31"/>
       <c r="O142" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Z142" s="14"/>
       <c r="AA142" s="14"/>
@@ -10586,13 +10530,13 @@
     </row>
     <row r="144" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
@@ -10601,7 +10545,7 @@
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
       <c r="J144" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K144" s="27"/>
       <c r="L144" s="27" t="n">
@@ -10626,10 +10570,10 @@
         <v>21</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D145" s="36"/>
       <c r="E145" s="27"/>
@@ -10638,7 +10582,7 @@
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
       <c r="J145" s="27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K145" s="27"/>
       <c r="L145" s="27"/>
@@ -10661,13 +10605,13 @@
         <v>21</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O146" s="31"/>
       <c r="Z146" s="14"/>
@@ -10678,11 +10622,11 @@
         <v>75</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C147" s="31"/>
       <c r="O147" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Z147" s="14"/>
       <c r="AA147" s="14"/>
@@ -10692,13 +10636,13 @@
         <v>21</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O148" s="31"/>
       <c r="Z148" s="14"/>
@@ -10736,25 +10680,25 @@
         <v>75</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C150" s="31"/>
       <c r="J150" s="31"/>
       <c r="O150" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Z150" s="14"/>
       <c r="AA150" s="14"/>
     </row>
     <row r="151" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
@@ -10763,7 +10707,7 @@
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
       <c r="J151" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K151" s="27"/>
       <c r="L151" s="27" t="n">
@@ -10788,10 +10732,10 @@
         <v>21</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D152" s="36"/>
       <c r="E152" s="27"/>
@@ -10800,7 +10744,7 @@
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
       <c r="J152" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
@@ -10823,13 +10767,13 @@
         <v>21</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O153" s="31"/>
       <c r="Z153" s="14"/>
@@ -10840,11 +10784,11 @@
         <v>75</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C154" s="31"/>
       <c r="O154" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Z154" s="14"/>
       <c r="AA154" s="14"/>
@@ -10854,13 +10798,13 @@
         <v>21</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O155" s="31"/>
       <c r="Z155" s="14"/>
@@ -10871,24 +10815,24 @@
         <v>75</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C156" s="31"/>
       <c r="O156" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Z156" s="14"/>
       <c r="AA156" s="14"/>
     </row>
     <row r="157" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27"/>
@@ -10897,7 +10841,7 @@
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
       <c r="J157" s="27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K157" s="27"/>
       <c r="L157" s="27" t="n">
@@ -10922,10 +10866,10 @@
         <v>21</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D158" s="36"/>
       <c r="E158" s="27"/>
@@ -10934,7 +10878,7 @@
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
       <c r="J158" s="27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
@@ -10957,13 +10901,13 @@
         <v>21</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O159" s="31"/>
       <c r="Z159" s="14"/>
@@ -10974,13 +10918,13 @@
         <v>21</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O160" s="31"/>
       <c r="Z160" s="14"/>
@@ -10991,11 +10935,11 @@
         <v>75</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C161" s="31"/>
       <c r="O161" s="31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Z161" s="14"/>
       <c r="AA161" s="14"/>
@@ -11005,22 +10949,22 @@
         <v>75</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C162" s="31"/>
       <c r="O162" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
@@ -11029,7 +10973,7 @@
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
       <c r="J163" s="27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K163" s="27"/>
       <c r="L163" s="27" t="n">
@@ -11054,10 +10998,10 @@
         <v>21</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D164" s="36"/>
       <c r="E164" s="27"/>
@@ -11066,7 +11010,7 @@
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
       <c r="J164" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K164" s="27"/>
       <c r="L164" s="27"/>
@@ -11089,13 +11033,13 @@
         <v>21</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O165" s="31"/>
     </row>
@@ -11104,13 +11048,13 @@
         <v>21</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O166" s="31"/>
       <c r="Z166" s="14"/>
@@ -11121,11 +11065,11 @@
         <v>75</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C167" s="31"/>
       <c r="O167" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11133,13 +11077,13 @@
         <v>21</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O168" s="10"/>
       <c r="Z168" s="14"/>
@@ -11150,7 +11094,7 @@
         <v>74</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O169" s="31"/>
       <c r="Z169" s="14"/>
@@ -11188,10 +11132,10 @@
         <v>25</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G171" s="14" t="s">
         <v>28</v>
@@ -11203,7 +11147,7 @@
         <v>75</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C172" s="28"/>
       <c r="D172" s="27"/>
@@ -11218,7 +11162,7 @@
       <c r="M172" s="27"/>
       <c r="N172" s="27"/>
       <c r="O172" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P172" s="27"/>
       <c r="Q172" s="27"/>
@@ -11236,7 +11180,7 @@
         <v>75</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C173" s="28"/>
       <c r="D173" s="27"/>
@@ -11251,7 +11195,7 @@
       <c r="M173" s="27"/>
       <c r="N173" s="27"/>
       <c r="O173" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P173" s="27"/>
       <c r="Q173" s="27"/>
@@ -11269,7 +11213,7 @@
         <v>75</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C174" s="28"/>
       <c r="D174" s="27"/>
@@ -11284,7 +11228,7 @@
       <c r="M174" s="27"/>
       <c r="N174" s="27"/>
       <c r="O174" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P174" s="27"/>
       <c r="Q174" s="27"/>
@@ -11384,13 +11328,13 @@
     </row>
     <row r="178" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -11399,7 +11343,7 @@
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
       <c r="J178" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K178" s="11"/>
       <c r="L178" s="11" t="n">
@@ -11408,7 +11352,7 @@
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
       <c r="O178" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P178" s="11"/>
       <c r="Q178" s="11"/>
@@ -11426,23 +11370,23 @@
         <v>44</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
       <c r="F179" s="27"/>
       <c r="G179" s="27"/>
       <c r="H179" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J179" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K179" s="27"/>
       <c r="L179" s="27" t="n">
@@ -11458,7 +11402,7 @@
       <c r="T179" s="27"/>
       <c r="U179" s="27"/>
       <c r="V179" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W179" s="27"/>
       <c r="X179" s="27"/>
@@ -11469,23 +11413,23 @@
         <v>44</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
       <c r="H180" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J180" s="27" t="s">
         <v>311</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J180" s="27" t="s">
-        <v>315</v>
       </c>
       <c r="K180" s="27"/>
       <c r="L180" s="27" t="n">
@@ -11501,7 +11445,7 @@
       <c r="T180" s="27"/>
       <c r="U180" s="27"/>
       <c r="V180" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W180" s="27"/>
       <c r="X180" s="27"/>
@@ -11512,23 +11456,23 @@
         <v>44</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
       <c r="F181" s="27"/>
       <c r="G181" s="27"/>
       <c r="H181" s="27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J181" s="27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K181" s="27"/>
       <c r="L181" s="27" t="n">
@@ -11544,7 +11488,7 @@
       <c r="T181" s="27"/>
       <c r="U181" s="27"/>
       <c r="V181" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W181" s="27"/>
       <c r="X181" s="27"/>
@@ -11555,28 +11499,28 @@
         <v>75</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C182" s="31"/>
       <c r="J182" s="31"/>
       <c r="O182" s="31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Z182" s="14"/>
       <c r="AA182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J183" s="31" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L183" s="1" t="n">
         <v>1</v>
@@ -11590,10 +11534,10 @@
         <v>21</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D184" s="36"/>
       <c r="E184" s="27"/>
@@ -11602,7 +11546,7 @@
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
       <c r="J184" s="27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K184" s="27"/>
       <c r="L184" s="27"/>
@@ -11625,10 +11569,10 @@
         <v>21</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="27"/>
@@ -11637,7 +11581,7 @@
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
       <c r="J185" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K185" s="27"/>
       <c r="L185" s="27"/>
@@ -11660,11 +11604,11 @@
         <v>75</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C186" s="31"/>
       <c r="O186" s="31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z186" s="14"/>
       <c r="AA186" s="14"/>
@@ -11674,10 +11618,10 @@
         <v>21</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D187" s="27"/>
       <c r="E187" s="27"/>
@@ -11686,7 +11630,7 @@
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
       <c r="J187" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K187" s="27"/>
       <c r="L187" s="27"/>
@@ -11709,28 +11653,28 @@
         <v>75</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C188" s="31"/>
       <c r="J188" s="31"/>
       <c r="O188" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Z188" s="14"/>
       <c r="AA188" s="14"/>
     </row>
     <row r="189" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J189" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L189" s="1" t="n">
         <v>1</v>
@@ -11744,10 +11688,10 @@
         <v>21</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C190" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D190" s="36"/>
       <c r="E190" s="27"/>
@@ -11756,7 +11700,7 @@
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
       <c r="J190" s="27" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K190" s="27"/>
       <c r="L190" s="27"/>
@@ -11779,13 +11723,13 @@
         <v>21</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O191" s="31"/>
       <c r="Z191" s="14"/>
@@ -11796,11 +11740,11 @@
         <v>75</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C192" s="31"/>
       <c r="O192" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Z192" s="14"/>
       <c r="AA192" s="14"/>
@@ -11810,10 +11754,10 @@
         <v>21</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D193" s="27"/>
       <c r="E193" s="27"/>
@@ -11822,7 +11766,7 @@
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
       <c r="J193" s="27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K193" s="27"/>
       <c r="L193" s="27"/>
@@ -11845,27 +11789,27 @@
         <v>75</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C194" s="31"/>
       <c r="O194" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Z194" s="14"/>
       <c r="AA194" s="14"/>
     </row>
     <row r="195" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J195" s="31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L195" s="1" t="n">
         <v>1</v>
@@ -11879,13 +11823,13 @@
         <v>21</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O196" s="31"/>
       <c r="Z196" s="14"/>
@@ -11896,10 +11840,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D197" s="36"/>
       <c r="E197" s="27"/>
@@ -11908,7 +11852,7 @@
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
       <c r="J197" s="27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K197" s="27"/>
       <c r="L197" s="27"/>
@@ -11931,11 +11875,11 @@
         <v>75</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C198" s="31"/>
       <c r="O198" s="14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11943,13 +11887,13 @@
         <v>21</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J199" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O199" s="31"/>
     </row>
@@ -11958,13 +11902,13 @@
         <v>21</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O200" s="31"/>
       <c r="Z200" s="14"/>
@@ -11975,7 +11919,7 @@
         <v>74</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O201" s="31"/>
       <c r="Z201" s="14"/>
@@ -12018,10 +11962,10 @@
         <v>25</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="1"/>
@@ -12050,13 +11994,13 @@
     </row>
     <row r="205" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="1"/>
@@ -12065,7 +12009,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K205" s="1"/>
       <c r="L205" s="1" t="n">
@@ -12090,7 +12034,7 @@
         <v>75</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C206" s="28"/>
       <c r="D206" s="27"/>
@@ -12105,7 +12049,7 @@
       <c r="M206" s="27"/>
       <c r="N206" s="27"/>
       <c r="O206" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P206" s="27"/>
       <c r="Q206" s="27"/>
@@ -12151,13 +12095,13 @@
     </row>
     <row r="208" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="1"/>
@@ -12166,7 +12110,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1" t="n">
@@ -12191,10 +12135,10 @@
         <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="1"/>
@@ -12203,7 +12147,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -12226,10 +12170,10 @@
         <v>21</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D210" s="26"/>
       <c r="E210" s="24"/>
@@ -12238,7 +12182,7 @@
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
       <c r="J210" s="24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K210" s="24"/>
       <c r="L210" s="24"/>
@@ -12261,21 +12205,21 @@
         <v>44</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D211" s="21"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -12298,7 +12242,7 @@
         <v>74</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Z212" s="18"/>
       <c r="AA212" s="18"/>
@@ -12335,10 +12279,10 @@
         <v>25</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="1"/>
@@ -12366,13 +12310,13 @@
     </row>
     <row r="215" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="1"/>
@@ -12381,7 +12325,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K215" s="1"/>
       <c r="L215" s="1" t="n">
@@ -12406,7 +12350,7 @@
         <v>75</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C216" s="28"/>
       <c r="D216" s="27"/>
@@ -12421,7 +12365,7 @@
       <c r="M216" s="27"/>
       <c r="N216" s="27"/>
       <c r="O216" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P216" s="27"/>
       <c r="Q216" s="27"/>
@@ -12467,13 +12411,13 @@
     </row>
     <row r="218" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="1"/>
@@ -12482,7 +12426,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K218" s="1"/>
       <c r="L218" s="1" t="n">
@@ -12507,10 +12451,10 @@
         <v>21</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="1"/>
@@ -12519,7 +12463,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -12542,10 +12486,10 @@
         <v>21</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="24"/>
@@ -12554,7 +12498,7 @@
       <c r="H220" s="24"/>
       <c r="I220" s="24"/>
       <c r="J220" s="24" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K220" s="24"/>
       <c r="L220" s="24"/>
@@ -12577,28 +12521,28 @@
         <v>44</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
@@ -12616,10 +12560,10 @@
         <v>74</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z222" s="18"/>
       <c r="AA222" s="18"/>
@@ -12633,29 +12577,29 @@
         <v>25</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z225" s="18"/>
       <c r="AA225" s="18"/>
     </row>
     <row r="226" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="1"/>
@@ -12687,7 +12631,7 @@
         <v>75</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C227" s="28"/>
       <c r="D227" s="27"/>
@@ -12702,7 +12646,7 @@
       <c r="M227" s="27"/>
       <c r="N227" s="27"/>
       <c r="O227" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P227" s="27"/>
       <c r="Q227" s="27"/>
@@ -12748,13 +12692,13 @@
     </row>
     <row r="229" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="1"/>
@@ -12763,7 +12707,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K229" s="1"/>
       <c r="L229" s="1" t="n">
@@ -12788,28 +12732,28 @@
         <v>44</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
@@ -12827,10 +12771,10 @@
         <v>21</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="1"/>
@@ -12839,7 +12783,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -12862,10 +12806,10 @@
         <v>21</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="24"/>
@@ -12874,7 +12818,7 @@
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
       <c r="J232" s="24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K232" s="24"/>
       <c r="L232" s="24"/>
@@ -12897,7 +12841,7 @@
         <v>74</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="21"/>
@@ -12955,10 +12899,10 @@
         <v>25</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="1"/>
@@ -12969,7 +12913,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -12989,13 +12933,13 @@
     </row>
     <row r="236" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="1"/>
@@ -13004,7 +12948,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1" t="n">
@@ -13029,10 +12973,10 @@
         <v>21</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="1"/>
@@ -13041,7 +12985,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -13064,7 +13008,7 @@
         <v>75</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C238" s="28"/>
       <c r="D238" s="27"/>
@@ -13079,7 +13023,7 @@
       <c r="M238" s="27"/>
       <c r="N238" s="27"/>
       <c r="O238" s="10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P238" s="27"/>
       <c r="Q238" s="27"/>
@@ -13125,13 +13069,13 @@
     </row>
     <row r="240" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D240" s="21"/>
       <c r="E240" s="1"/>
@@ -13140,7 +13084,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="n">
@@ -13165,21 +13109,21 @@
         <v>44</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -13202,10 +13146,10 @@
         <v>21</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D242" s="21"/>
       <c r="E242" s="1"/>
@@ -13214,7 +13158,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -13237,10 +13181,10 @@
         <v>21</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D243" s="26"/>
       <c r="E243" s="24"/>
@@ -13249,7 +13193,7 @@
       <c r="H243" s="24"/>
       <c r="I243" s="24"/>
       <c r="J243" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K243" s="24"/>
       <c r="L243" s="24"/>
@@ -13272,7 +13216,7 @@
         <v>74</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="21"/>
@@ -13330,10 +13274,10 @@
         <v>25</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="1"/>
@@ -13344,7 +13288,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -13364,13 +13308,13 @@
     </row>
     <row r="247" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D247" s="21"/>
       <c r="E247" s="1"/>
@@ -13379,7 +13323,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="n">
@@ -13404,10 +13348,10 @@
         <v>21</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D248" s="21"/>
       <c r="E248" s="1"/>
@@ -13416,7 +13360,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -13439,7 +13383,7 @@
         <v>75</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C249" s="28"/>
       <c r="D249" s="27"/>
@@ -13454,7 +13398,7 @@
       <c r="M249" s="27"/>
       <c r="N249" s="27"/>
       <c r="O249" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P249" s="27"/>
       <c r="Q249" s="27"/>
@@ -13500,13 +13444,13 @@
     </row>
     <row r="251" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="1"/>
@@ -13515,7 +13459,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K251" s="1"/>
       <c r="L251" s="1" t="n">
@@ -13540,21 +13484,21 @@
         <v>44</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -13577,10 +13521,10 @@
         <v>21</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="1"/>
@@ -13589,7 +13533,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -13612,10 +13556,10 @@
         <v>21</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C254" s="42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="24"/>
@@ -13624,7 +13568,7 @@
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
       <c r="J254" s="24" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K254" s="24"/>
       <c r="L254" s="24"/>
@@ -13647,7 +13591,7 @@
         <v>74</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C255" s="22"/>
       <c r="D255" s="23"/>
@@ -13705,10 +13649,10 @@
         <v>25</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="1"/>
@@ -13719,7 +13663,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -13739,13 +13683,13 @@
     </row>
     <row r="258" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="1"/>
@@ -13777,21 +13721,21 @@
         <v>44</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D259" s="21"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -13814,7 +13758,7 @@
         <v>75</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C260" s="28"/>
       <c r="D260" s="27"/>
@@ -13829,7 +13773,7 @@
       <c r="M260" s="27"/>
       <c r="N260" s="27"/>
       <c r="O260" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P260" s="27"/>
       <c r="Q260" s="27"/>
@@ -13875,13 +13819,13 @@
     </row>
     <row r="262" s="18" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="1"/>
@@ -13890,7 +13834,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K262" s="1"/>
       <c r="L262" s="1" t="n">
@@ -13915,10 +13859,10 @@
         <v>21</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="1"/>
@@ -13927,7 +13871,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -13950,10 +13894,10 @@
         <v>21</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C264" s="42" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D264" s="26"/>
       <c r="E264" s="24"/>
@@ -13962,7 +13906,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
       <c r="J264" s="24" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K264" s="24"/>
       <c r="L264" s="24"/>
@@ -13985,7 +13929,7 @@
         <v>74</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C265" s="22"/>
       <c r="D265" s="23"/>
@@ -14016,10 +13960,10 @@
         <v>25</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>28</v>
@@ -14032,10 +13976,10 @@
         <v>21</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Z267" s="18"/>
       <c r="AA267" s="18"/>
@@ -14045,10 +13989,10 @@
         <v>75</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Z268" s="18"/>
       <c r="AA268" s="18"/>
@@ -14058,13 +14002,13 @@
         <v>21</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J269" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Z269" s="18"/>
       <c r="AA269" s="18"/>
@@ -14074,10 +14018,10 @@
         <v>75</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Z270" s="18"/>
       <c r="AA270" s="18"/>
@@ -14087,10 +14031,10 @@
         <v>21</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -14099,7 +14043,7 @@
       <c r="H271" s="11"/>
       <c r="I271" s="11"/>
       <c r="J271" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K271" s="11"/>
       <c r="L271" s="11"/>
@@ -14124,10 +14068,10 @@
         <v>75</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Z272" s="18"/>
       <c r="AA272" s="18"/>
@@ -14137,10 +14081,10 @@
         <v>21</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -14149,7 +14093,7 @@
       <c r="H273" s="11"/>
       <c r="I273" s="11"/>
       <c r="J273" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K273" s="11"/>
       <c r="L273" s="11"/>
@@ -14174,10 +14118,10 @@
         <v>75</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Z274" s="18"/>
       <c r="AA274" s="18"/>
@@ -14187,10 +14131,10 @@
         <v>21</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -14199,7 +14143,7 @@
       <c r="H275" s="11"/>
       <c r="I275" s="11"/>
       <c r="J275" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K275" s="11"/>
       <c r="L275" s="11"/>
@@ -14224,10 +14168,10 @@
         <v>75</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Z276" s="18"/>
       <c r="AA276" s="18"/>
@@ -14237,10 +14181,10 @@
         <v>21</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -14249,7 +14193,7 @@
       <c r="H277" s="11"/>
       <c r="I277" s="11"/>
       <c r="J277" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K277" s="11"/>
       <c r="L277" s="11"/>
@@ -14290,10 +14234,10 @@
         <v>75</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Z280" s="18"/>
       <c r="AA280" s="18"/>
@@ -14303,10 +14247,10 @@
         <v>21</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -14315,7 +14259,7 @@
       <c r="H281" s="11"/>
       <c r="I281" s="11"/>
       <c r="J281" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K281" s="11"/>
       <c r="L281" s="11"/>
@@ -14340,10 +14284,10 @@
         <v>75</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O282" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Z282" s="18"/>
       <c r="AA282" s="18"/>
@@ -14353,10 +14297,10 @@
         <v>21</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -14365,7 +14309,7 @@
       <c r="H283" s="11"/>
       <c r="I283" s="11"/>
       <c r="J283" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K283" s="11"/>
       <c r="L283" s="11"/>
@@ -14390,10 +14334,10 @@
         <v>75</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O284" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Z284" s="18"/>
       <c r="AA284" s="18"/>
@@ -14403,10 +14347,10 @@
         <v>21</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -14415,7 +14359,7 @@
       <c r="H285" s="11"/>
       <c r="I285" s="11"/>
       <c r="J285" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K285" s="11"/>
       <c r="L285" s="11"/>
@@ -14448,10 +14392,10 @@
         <v>75</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Z287" s="18"/>
       <c r="AA287" s="18"/>
@@ -14461,13 +14405,13 @@
         <v>21</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Z288" s="18"/>
       <c r="AA288" s="18"/>
@@ -14477,10 +14421,10 @@
         <v>75</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Z289" s="18"/>
       <c r="AA289" s="18"/>
@@ -14490,13 +14434,13 @@
         <v>21</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Z290" s="18"/>
       <c r="AA290" s="18"/>
@@ -14506,10 +14450,10 @@
         <v>75</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Z291" s="18"/>
       <c r="AA291" s="18"/>
@@ -14519,13 +14463,13 @@
         <v>21</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Z292" s="18"/>
       <c r="AA292" s="18"/>
@@ -14535,10 +14479,10 @@
         <v>75</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="O293" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Z293" s="18"/>
       <c r="AA293" s="18"/>
@@ -14548,13 +14492,13 @@
         <v>21</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Z294" s="18"/>
       <c r="AA294" s="18"/>
@@ -14564,10 +14508,10 @@
         <v>75</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="O295" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Z295" s="18"/>
       <c r="AA295" s="18"/>
@@ -14577,13 +14521,13 @@
         <v>21</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Z296" s="18"/>
       <c r="AA296" s="18"/>
@@ -14593,10 +14537,10 @@
         <v>75</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="O297" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Z297" s="18"/>
       <c r="AA297" s="18"/>
@@ -14606,13 +14550,13 @@
         <v>21</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Z298" s="18"/>
       <c r="AA298" s="18"/>
@@ -14649,13 +14593,13 @@
         <v>21</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C300" s="27" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O300" s="31"/>
       <c r="Z300" s="14"/>
@@ -14666,13 +14610,13 @@
         <v>21</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O301" s="31"/>
       <c r="Z301" s="14"/>
@@ -14683,7 +14627,7 @@
         <v>74</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="21"/>
@@ -14698,7 +14642,7 @@
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="13" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
@@ -39651,7 +39595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D21" activeCellId="1" sqref="78:78 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39667,255 +39611,255 @@
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B2" s="52" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L2" s="52"/>
     </row>
     <row r="3" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="52" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B3" s="52" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="56" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B4" s="56" t="n">
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="56" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B5" s="56" t="n">
         <v>9</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="56" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B6" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="56" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B7" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="56" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B8" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="56" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B9" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="56" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B10" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="56" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B11" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="56" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B12" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B13" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B14" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B15" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B16" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B17" s="56" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="56" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B18" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="56" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B19" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B20" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B21" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B22" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39925,141 +39869,141 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="56" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B24" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="56" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B25" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="56" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B26" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="56" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B27" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="56" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B28" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B29" s="57" t="n">
         <v>3</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="56" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B30" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="56" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B31" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="56" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B32" s="57" t="n">
         <v>3</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="56" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B33" s="57" t="n">
         <v>4</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="56" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B34" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="56" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B35" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H35" s="58"/>
     </row>
@@ -41369,7 +41313,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="78:78 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41383,46 +41327,46 @@
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="F1" s="66" t="s">
         <v>611</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="G1" s="14" t="s">
         <v>612</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>613</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>614</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>615</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>616</v>
       </c>
       <c r="H1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="68" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C2" s="52" t="str">
         <f aca="true">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2302170944</v>
+        <v>2302212249</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="70"/>
       <c r="F2" s="52" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -41444,10 +41388,10 @@
   <dimension ref="A1:AD154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+      <selection pane="topLeft" activeCell="A61" activeCellId="1" sqref="78:78 A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="36"/>
@@ -41456,7 +41400,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B1" s="71"/>
     </row>
@@ -41466,7 +41410,7 @@
     </row>
     <row r="3" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B3" s="73"/>
     </row>
@@ -41478,16 +41422,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -41499,10 +41443,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>9</v>
@@ -41514,10 +41458,10 @@
         <v>11</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -41529,22 +41473,22 @@
         <v>15</v>
       </c>
       <c r="T5" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>19</v>
@@ -41564,99 +41508,99 @@
     </row>
     <row r="6" s="76" customFormat="true" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" s="75" t="s">
         <v>637</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="F6" s="75" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="G6" s="75" t="s">
         <v>639</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="H6" s="75" t="s">
         <v>640</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="I6" s="75" t="s">
         <v>641</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="J6" s="75" t="s">
         <v>642</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="K6" s="75" t="s">
         <v>643</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="L6" s="75" t="s">
         <v>644</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="M6" s="75" t="s">
         <v>645</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="N6" s="75" t="s">
         <v>646</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="O6" s="75" t="s">
         <v>647</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="P6" s="75" t="s">
         <v>648</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="Q6" s="75" t="s">
         <v>649</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="R6" s="75" t="s">
         <v>650</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="S6" s="75" t="s">
         <v>651</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="T6" s="75" t="s">
         <v>652</v>
       </c>
-      <c r="Q6" s="75" t="s">
+      <c r="U6" s="75" t="s">
         <v>653</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="V6" s="75" t="s">
         <v>654</v>
       </c>
-      <c r="S6" s="75" t="s">
+      <c r="W6" s="75" t="s">
         <v>655</v>
       </c>
-      <c r="T6" s="75" t="s">
+      <c r="X6" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="U6" s="75" t="s">
+      <c r="Y6" s="75" t="s">
         <v>657</v>
       </c>
-      <c r="V6" s="75" t="s">
+      <c r="Z6" s="75" t="s">
         <v>658</v>
       </c>
-      <c r="W6" s="75" t="s">
+      <c r="AA6" s="75" t="s">
         <v>659</v>
       </c>
-      <c r="X6" s="75" t="s">
+      <c r="AB6" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="Y6" s="75" t="s">
+      <c r="AC6" s="75" t="s">
         <v>661</v>
       </c>
-      <c r="Z6" s="75" t="s">
+      <c r="AD6" s="75" t="s">
         <v>662</v>
-      </c>
-      <c r="AA6" s="75" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB6" s="75" t="s">
-        <v>664</v>
-      </c>
-      <c r="AC6" s="75" t="s">
-        <v>665</v>
-      </c>
-      <c r="AD6" s="75" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="8" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="77" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="78"/>
@@ -41690,13 +41634,13 @@
     </row>
     <row r="10" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="81" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -41728,20 +41672,20 @@
     </row>
     <row r="11" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="81" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
       <c r="H11" s="81" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
@@ -41768,13 +41712,13 @@
     </row>
     <row r="12" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -41806,13 +41750,13 @@
     </row>
     <row r="13" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="81" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -41844,13 +41788,13 @@
     </row>
     <row r="14" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -41882,20 +41826,20 @@
     </row>
     <row r="15" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
@@ -41922,20 +41866,20 @@
     </row>
     <row r="16" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="81" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>665</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>677</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>669</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>681</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
       <c r="G16" s="81"/>
       <c r="H16" s="81" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
@@ -41962,20 +41906,20 @@
     </row>
     <row r="17" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
       <c r="H17" s="81" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
@@ -42002,20 +41946,20 @@
     </row>
     <row r="18" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
@@ -42042,20 +41986,20 @@
     </row>
     <row r="19" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
@@ -42082,20 +42026,20 @@
     </row>
     <row r="20" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
@@ -42122,20 +42066,20 @@
     </row>
     <row r="21" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
@@ -42162,20 +42106,20 @@
     </row>
     <row r="22" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
@@ -42202,20 +42146,20 @@
     </row>
     <row r="23" s="83" customFormat="true" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
@@ -42242,20 +42186,20 @@
     </row>
     <row r="24" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
       <c r="H24" s="81" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
@@ -42282,20 +42226,20 @@
     </row>
     <row r="25" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
@@ -42322,20 +42266,20 @@
     </row>
     <row r="26" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
@@ -42362,20 +42306,20 @@
     </row>
     <row r="27" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
@@ -42402,20 +42346,20 @@
     </row>
     <row r="28" s="83" customFormat="true" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="81" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="81"/>
       <c r="H28" s="81" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
@@ -42442,13 +42386,13 @@
     </row>
     <row r="29" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
@@ -42480,20 +42424,20 @@
     </row>
     <row r="30" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
@@ -42520,20 +42464,20 @@
     </row>
     <row r="31" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
@@ -42560,20 +42504,20 @@
     </row>
     <row r="32" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="s">
+        <v>703</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>665</v>
+      </c>
+      <c r="C32" s="82" t="s">
         <v>707</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>669</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>711</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
       <c r="H32" s="81" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I32" s="81"/>
       <c r="J32" s="81"/>
@@ -42600,20 +42544,20 @@
     </row>
     <row r="33" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
       <c r="F33" s="81"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="I33" s="81"/>
       <c r="J33" s="81"/>
@@ -42640,20 +42584,20 @@
     </row>
     <row r="34" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
@@ -42680,20 +42624,20 @@
     </row>
     <row r="35" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I35" s="81"/>
       <c r="J35" s="81"/>
@@ -42720,20 +42664,20 @@
     </row>
     <row r="36" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
       <c r="H36" s="81" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I36" s="81"/>
       <c r="J36" s="81"/>
@@ -42760,20 +42704,20 @@
     </row>
     <row r="37" s="83" customFormat="true" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
       <c r="G37" s="81"/>
       <c r="H37" s="81" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="I37" s="81"/>
       <c r="J37" s="81"/>
@@ -42800,13 +42744,13 @@
     </row>
     <row r="38" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="81" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
@@ -42838,13 +42782,13 @@
     </row>
     <row r="39" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="81" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D39" s="81"/>
       <c r="E39" s="81"/>
@@ -42876,13 +42820,13 @@
     </row>
     <row r="40" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="81" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
@@ -42914,13 +42858,13 @@
     </row>
     <row r="41" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="81" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D41" s="81"/>
       <c r="E41" s="81"/>
@@ -42955,10 +42899,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
@@ -42993,17 +42937,17 @@
         <v>44</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
       <c r="H43" s="81" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I43" s="81"/>
       <c r="J43" s="81"/>
@@ -43030,13 +42974,13 @@
     </row>
     <row r="44" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="81" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D44" s="81"/>
       <c r="E44" s="81"/>
@@ -43068,20 +43012,20 @@
     </row>
     <row r="45" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="81" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D45" s="81"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I45" s="81"/>
       <c r="J45" s="81"/>
@@ -43108,13 +43052,13 @@
     </row>
     <row r="46" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
@@ -43146,20 +43090,20 @@
     </row>
     <row r="47" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="81" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
       <c r="H47" s="81" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I47" s="81"/>
       <c r="J47" s="81"/>
@@ -43186,20 +43130,20 @@
     </row>
     <row r="48" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="81" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="81" t="s">
+        <v>665</v>
+      </c>
+      <c r="C48" s="82" t="s">
         <v>731</v>
-      </c>
-      <c r="B48" s="81" t="s">
-        <v>669</v>
-      </c>
-      <c r="C48" s="82" t="s">
-        <v>735</v>
       </c>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
       <c r="G48" s="81"/>
       <c r="H48" s="81" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I48" s="81"/>
       <c r="J48" s="81"/>
@@ -43226,20 +43170,20 @@
     </row>
     <row r="49" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="81" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
       <c r="G49" s="81"/>
       <c r="H49" s="81" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I49" s="81"/>
       <c r="J49" s="81"/>
@@ -43266,13 +43210,13 @@
     </row>
     <row r="50" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="81" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
@@ -43304,13 +43248,13 @@
     </row>
     <row r="51" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="81" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
@@ -43342,13 +43286,13 @@
     </row>
     <row r="52" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="81" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
@@ -43383,10 +43327,10 @@
         <v>21</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -43418,10 +43362,10 @@
     </row>
     <row r="54" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="81" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B54" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C54" s="82"/>
       <c r="D54" s="81"/>
@@ -43454,10 +43398,10 @@
     </row>
     <row r="55" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="81" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C55" s="82"/>
       <c r="D55" s="81"/>
@@ -43490,10 +43434,10 @@
     </row>
     <row r="56" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="81" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B56" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C56" s="82"/>
       <c r="D56" s="81"/>
@@ -43526,10 +43470,10 @@
     </row>
     <row r="57" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="81" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B57" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C57" s="82"/>
       <c r="D57" s="81"/>
@@ -43562,10 +43506,10 @@
     </row>
     <row r="58" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="81" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B58" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C58" s="82"/>
       <c r="D58" s="81"/>
@@ -43598,10 +43542,10 @@
     </row>
     <row r="59" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="81" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B59" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C59" s="82"/>
       <c r="D59" s="81"/>
@@ -43634,10 +43578,10 @@
     </row>
     <row r="60" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="81" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="81"/>
@@ -43670,10 +43614,10 @@
     </row>
     <row r="61" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="81" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B61" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C61" s="82"/>
       <c r="D61" s="81"/>
@@ -43709,7 +43653,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C62" s="82"/>
       <c r="D62" s="81"/>
@@ -43727,7 +43671,7 @@
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="R62" s="81" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="S62" s="81"/>
       <c r="T62" s="81"/>
@@ -43744,10 +43688,10 @@
     </row>
     <row r="63" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="81" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B63" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C63" s="82"/>
       <c r="D63" s="81"/>
@@ -43765,7 +43709,7 @@
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="R63" s="81" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="S63" s="81"/>
       <c r="T63" s="81"/>
@@ -43782,10 +43726,10 @@
     </row>
     <row r="64" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="81" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B64" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C64" s="82"/>
       <c r="D64" s="81"/>
@@ -43793,7 +43737,7 @@
       <c r="F64" s="81"/>
       <c r="G64" s="81"/>
       <c r="H64" s="81" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I64" s="81"/>
       <c r="J64" s="81"/>
@@ -43820,10 +43764,10 @@
     </row>
     <row r="65" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="81" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B65" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C65" s="82"/>
       <c r="D65" s="81"/>
@@ -43831,7 +43775,7 @@
       <c r="F65" s="81"/>
       <c r="G65" s="81"/>
       <c r="H65" s="81" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="I65" s="81"/>
       <c r="J65" s="81"/>
@@ -43858,10 +43802,10 @@
     </row>
     <row r="66" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="81" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B66" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C66" s="82"/>
       <c r="D66" s="81"/>
@@ -43869,7 +43813,7 @@
       <c r="F66" s="81"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="I66" s="81"/>
       <c r="J66" s="81"/>
@@ -43896,10 +43840,10 @@
     </row>
     <row r="67" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="81" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B67" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C67" s="82"/>
       <c r="D67" s="81"/>
@@ -43907,7 +43851,7 @@
       <c r="F67" s="81"/>
       <c r="G67" s="81"/>
       <c r="H67" s="81" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I67" s="81"/>
       <c r="J67" s="81"/>
@@ -43937,10 +43881,10 @@
         <v>25</v>
       </c>
       <c r="B68" s="81" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D68" s="81"/>
       <c r="E68" s="81"/>
@@ -43972,7 +43916,7 @@
     </row>
     <row r="69" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="81" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B69" s="81"/>
       <c r="C69" s="82"/>
@@ -44009,7 +43953,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="81" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C70" s="82"/>
       <c r="D70" s="81"/>
@@ -44042,13 +43986,13 @@
     </row>
     <row r="71" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="81" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B71" s="81" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
@@ -44080,7 +44024,7 @@
     </row>
     <row r="72" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="81" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B72" s="81"/>
       <c r="C72" s="82"/>
@@ -44114,10 +44058,10 @@
     </row>
     <row r="73" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="81" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B73" s="81" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C73" s="82"/>
       <c r="D73" s="81"/>
@@ -44150,13 +44094,13 @@
     </row>
     <row r="74" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="B74" s="81" t="s">
+        <v>763</v>
+      </c>
+      <c r="C74" s="82" t="s">
         <v>766</v>
-      </c>
-      <c r="B74" s="81" t="s">
-        <v>767</v>
-      </c>
-      <c r="C74" s="82" t="s">
-        <v>770</v>
       </c>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
@@ -44190,7 +44134,7 @@
     </row>
     <row r="75" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="81" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B75" s="81"/>
       <c r="C75" s="82"/>
@@ -44224,10 +44168,10 @@
     </row>
     <row r="76" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="81" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B76" s="81" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C76" s="82"/>
       <c r="D76" s="81"/>
@@ -44260,10 +44204,10 @@
     </row>
     <row r="77" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="81" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C77" s="82"/>
       <c r="D77" s="81"/>
@@ -44296,10 +44240,10 @@
     </row>
     <row r="78" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="81" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B78" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C78" s="82"/>
       <c r="D78" s="81"/>
@@ -44332,10 +44276,10 @@
     </row>
     <row r="79" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="81" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C79" s="82"/>
       <c r="D79" s="81"/>
@@ -44343,7 +44287,7 @@
       <c r="F79" s="81"/>
       <c r="G79" s="81"/>
       <c r="H79" s="81" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="I79" s="81"/>
       <c r="J79" s="81"/>
@@ -44370,10 +44314,10 @@
     </row>
     <row r="80" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="81" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B80" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C80" s="82"/>
       <c r="D80" s="81"/>
@@ -44381,7 +44325,7 @@
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
       <c r="H80" s="81" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="I80" s="81"/>
       <c r="J80" s="81"/>
@@ -44408,10 +44352,10 @@
     </row>
     <row r="81" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="81" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C81" s="82"/>
       <c r="D81" s="81"/>
@@ -44419,7 +44363,7 @@
       <c r="F81" s="81"/>
       <c r="G81" s="81"/>
       <c r="H81" s="81" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I81" s="81"/>
       <c r="J81" s="81"/>
@@ -44446,7 +44390,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="86" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B83" s="86"/>
       <c r="C83" s="87"/>
@@ -44480,27 +44424,27 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="90" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C85" s="90" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D85" s="90" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="91" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B86" s="91" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C86" s="91" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D86" s="91" t="n">
         <v>2</v>
@@ -44508,10 +44452,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="91" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B87" s="91" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C87" s="92" t="str">
         <f aca="false">"3 - 2"</f>
@@ -44523,13 +44467,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="91" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B88" s="91" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C88" s="91" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D88" s="91" t="n">
         <v>6</v>
@@ -44537,13 +44481,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="91" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C89" s="91" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D89" s="91" t="n">
         <v>5</v>
@@ -44551,13 +44495,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="91" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C90" s="91" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D90" s="91" t="n">
         <v>1</v>
@@ -44565,128 +44509,128 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="91" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C91" s="91" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D91" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="91" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C92" s="91" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D92" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="91" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C93" s="91" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D93" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="91" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C94" s="91" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D94" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="91" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B95" s="91" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C95" s="91" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D95" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="91" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B96" s="91" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C96" s="91" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D96" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="91" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B97" s="91" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C97" s="91" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D97" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="91" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B98" s="91" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C98" s="91" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="91" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B99" s="91" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C99" s="91" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D99" s="91" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44698,540 +44642,540 @@
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="88"/>
       <c r="B101" s="90" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C101" s="90" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D101" s="88"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="88"/>
       <c r="B102" s="93" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C102" s="94" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D102" s="88"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="88"/>
       <c r="B103" s="94" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C103" s="94" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D103" s="88"/>
     </row>
     <row r="104" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="88"/>
       <c r="B104" s="94" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C104" s="94" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D104" s="88"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="88"/>
       <c r="B105" s="94" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D105" s="88"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="88"/>
       <c r="B106" s="94" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D106" s="88"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="88"/>
       <c r="B107" s="94" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D107" s="88"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="88"/>
       <c r="B108" s="94" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C108" s="94" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D108" s="88"/>
     </row>
     <row r="109" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="88"/>
       <c r="B109" s="94" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C109" s="94" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D109" s="88"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="88"/>
       <c r="B110" s="94" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C110" s="94" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D110" s="88"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="88"/>
       <c r="B111" s="94" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D111" s="88"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="88"/>
       <c r="B112" s="94" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C112" s="94" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D112" s="88"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="88"/>
       <c r="B113" s="94" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C113" s="94" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D113" s="88"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="88"/>
       <c r="B114" s="94" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C114" s="94" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D114" s="88"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="88"/>
       <c r="B115" s="94" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C115" s="94" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D115" s="88"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="88"/>
       <c r="B116" s="94" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C116" s="94" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D116" s="88"/>
     </row>
     <row r="117" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="88"/>
       <c r="B117" s="94" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C117" s="94" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D117" s="88"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="88"/>
       <c r="B118" s="94" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C118" s="94" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D118" s="88"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="88"/>
       <c r="B119" s="94" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C119" s="94" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D119" s="88"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="88"/>
       <c r="B120" s="94" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C120" s="94" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D120" s="88"/>
     </row>
     <row r="121" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="88"/>
       <c r="B121" s="94" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C121" s="94" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D121" s="88"/>
     </row>
     <row r="122" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="88"/>
       <c r="B122" s="94" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C122" s="94" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D122" s="88"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="88"/>
       <c r="B123" s="94" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D123" s="88"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="88"/>
       <c r="B124" s="94" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C124" s="94" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D124" s="88"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="88"/>
       <c r="B125" s="94" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C125" s="94" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D125" s="88"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="88"/>
       <c r="B126" s="94" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C126" s="94" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D126" s="88"/>
     </row>
     <row r="127" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="88"/>
       <c r="B127" s="94" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C127" s="94" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D127" s="88"/>
     </row>
     <row r="128" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="88"/>
       <c r="B128" s="94" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C128" s="94" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D128" s="88"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="88"/>
       <c r="B129" s="95" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D129" s="88"/>
     </row>
     <row r="130" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="88"/>
       <c r="B130" s="95" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C130" s="95" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D130" s="88"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="88"/>
       <c r="B131" s="95" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C131" s="95" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D131" s="88"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="88"/>
       <c r="B132" s="95" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C132" s="95" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D132" s="88"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="88"/>
       <c r="B133" s="95" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C133" s="95" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D133" s="88"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="88"/>
       <c r="B134" s="95" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C134" s="95" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D134" s="88"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="88"/>
       <c r="B135" s="95" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C135" s="95" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D135" s="88"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="88"/>
       <c r="B136" s="95" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C136" s="95" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D136" s="88"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="88"/>
       <c r="B137" s="95" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C137" s="95" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D137" s="88"/>
     </row>
     <row r="138" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="88"/>
       <c r="B138" s="95" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C138" s="95" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D138" s="88"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="88"/>
       <c r="B139" s="95" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C139" s="95" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D139" s="88"/>
     </row>
     <row r="140" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="88"/>
       <c r="B140" s="95" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C140" s="95" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D140" s="88"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="88"/>
       <c r="B141" s="95" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C141" s="95" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D141" s="88"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="88"/>
       <c r="B142" s="95" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C142" s="95" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D142" s="88"/>
     </row>
     <row r="143" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="88"/>
       <c r="B143" s="95" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C143" s="95" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D143" s="88"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="88"/>
       <c r="B144" s="95" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D144" s="88"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="88"/>
       <c r="B145" s="95" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C145" s="95" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D145" s="88"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="88"/>
       <c r="B146" s="95" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C146" s="95" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D146" s="88"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="88"/>
       <c r="B147" s="95" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C147" s="95" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D147" s="88"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="88"/>
       <c r="B148" s="95" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C148" s="95" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D148" s="88"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="88"/>
       <c r="B149" s="95" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C149" s="95" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D149" s="88"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="88"/>
       <c r="B150" s="95" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C150" s="95" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D150" s="88"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="88"/>
       <c r="B151" s="95" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C151" s="95" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D151" s="88"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="88"/>
       <c r="B152" s="95" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C152" s="95" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D152" s="88"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="88"/>
       <c r="B153" s="95" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C153" s="95" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D153" s="88"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="88"/>
       <c r="B154" s="95" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C154" s="95" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D154" s="88"/>
     </row>
@@ -45607,17 +45551,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="78:78 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B1" s="71"/>
     </row>
@@ -45627,54 +45571,54 @@
     </row>
     <row r="3" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B3" s="73"/>
     </row>
     <row r="5" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="true" ht="201" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
+        <v>923</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>924</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>925</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>926</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>927</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="G6" s="75" t="s">
         <v>928</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>929</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>640</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>930</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>931</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>932</v>
       </c>
       <c r="H6" s="75"/>
     </row>
@@ -45702,17 +45646,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="78:78 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="97" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="98"/>
@@ -45730,7 +45674,7 @@
     </row>
     <row r="3" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="98"/>
@@ -45748,43 +45692,43 @@
     </row>
     <row r="5" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="99" t="s">
+        <v>606</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="99" t="s">
         <v>610</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="F5" s="100" t="s">
         <v>611</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>612</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>613</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>614</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>615</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" s="76" customFormat="true" ht="309.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
+        <v>931</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>932</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>933</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>934</v>
+      </c>
+      <c r="E6" s="75" t="s">
         <v>935</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="F6" s="75" t="s">
         <v>936</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>937</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>938</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>939</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/forms/app/pev_enfant.xlsx
+++ b/forms/app/pev_enfant.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="939">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">Veuillez entrer la date à laquelle l'enfant a réçu le vaccin</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance}</t>
+    <t xml:space="preserve">.&lt;= today() and .&gt;=${date_naissance}</t>
   </si>
   <si>
     <t xml:space="preserve">${is_bcg_missed}=1 </t>
@@ -663,7 +663,7 @@
     <t xml:space="preserve">Veuillez selectionner la dernière dose de VPO reçu par l'enfant?</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(${_case_date_vpo3},'')='' and int(decimal-date-time(today() - ${date_naissance}))&gt;=42</t>
+    <t xml:space="preserve">coalesce(${_case_date_vpo3},'')=''</t>
   </si>
   <si>
     <t xml:space="preserve">if(coalesce(${_case_date_vpo2},'')!='','3',
@@ -678,13 +678,13 @@
     <t xml:space="preserve">Veuillez entrer la date de VPO 0</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance}  and (decimal-date-time(today())-decimal-date-time(.)&gt;=42)</t>
+    <t xml:space="preserve">.&lt;= today() and .&gt;=${date_naissance} </t>
   </si>
   <si>
     <t xml:space="preserve">Il est tôt  pour prendre ce vaccin veuillez indiquer la date de rendez-vous à la maman.</t>
   </si>
   <si>
-    <t xml:space="preserve">${is_vpo0_missed}=1 and int(decimal-date-time(today() - ${date_naissance}))&gt;=42</t>
+    <t xml:space="preserve">${is_vpo0_missed}=1</t>
   </si>
   <si>
     <t xml:space="preserve">date sauvgardé(_case_date_) ou renseigné(e_date_)</t>
@@ -703,7 +703,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">${is_vpo1_missed}=1 and int(decimal-date-time(today() - ${date_naissance}))&gt;=70</t>
+    <t xml:space="preserve">${is_vpo1_missed}=1 and int(decimal-date-time(today() - ${date_naissance}))&gt;=42</t>
   </si>
   <si>
     <t xml:space="preserve">e_date_vpo2</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance} and (decimal-date-time(${e_date_vpo2})-decimal-date-time(.)&gt;=28)</t>
   </si>
   <si>
-    <t xml:space="preserve">${is_vpo2_missed}=1 and  int(decimal-date-time(today() - ${date_naissance}))&gt;=98</t>
+    <t xml:space="preserve">${is_vpo2_missed}=1 and  int(decimal-date-time(today() - ${date_naissance}))&gt;=70</t>
   </si>
   <si>
     <t xml:space="preserve">e_date_vpo3</t>
@@ -724,14 +724,14 @@
     <t xml:space="preserve">Veuillez entrer la date de VPO 3</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance} and (decimal-date-time(.)-decimal-date-time(.)&gt;=28)</t>
+    <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance} and (decimal-date-time(${e_date_vpo3})-decimal-date-time(.)&gt;=28)</t>
   </si>
   <si>
     <t xml:space="preserve">Il est tôt  pour continuer avec les autres  vaccin veuillez indiquer la date de rendez-vous correcte  à la maman.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">${is_vpo3_missed}=1 and int(decimal-date-time(today() - ${date_naissance}))&gt;=252</t>
+    <t xml:space="preserve">${is_vpo3_missed}=1 and int(decimal-date-time(today() - ${date_naissance}))&gt;=98</t>
   </si>
   <si>
     <t xml:space="preserve">vpo0_needed</t>
@@ -978,16 +978,19 @@
     <t xml:space="preserve">Veuillez entrer la date de Penta 1</t>
   </si>
   <si>
+    <t xml:space="preserve">.&lt;= today() and (decimal-date-time(.)-decimal-date-time(${date_naissance})&gt;=42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${is_missed_penta1}=1   and int(decimal-date-time(today() - ${date_naissance}))&gt;=42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_date_penta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez entrer la date de Penta 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance} and (decimal-date-time(.)-decimal-date-time(${e_date_penta1})&gt;=28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${is_missed_penta1}=1   and int(decimal-date-time(today() - ${date_naissance}))&gt;=70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_date_penta2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez entrer la date de Penta 2</t>
   </si>
   <si>
     <t xml:space="preserve">${is_missed_penta2}=1  and int(decimal-date-time(today() - ${date_naissance}))&gt;=70</t>
@@ -1196,6 +1199,9 @@
   </si>
   <si>
     <t xml:space="preserve">Veuillez entrer la date à la quelle l'enfant a reçu ce vaccin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.&lt;= today() and .&gt;${date_naissance}</t>
   </si>
   <si>
     <t xml:space="preserve">${is_vpi_missed}=1</t>
@@ -6988,11 +6994,11 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="A78" activeCellId="0" sqref="78:78"/>
+      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="bottomRight" activeCell="H175" activeCellId="0" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -11423,13 +11429,13 @@
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
       <c r="H180" s="27" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>213</v>
       </c>
       <c r="J180" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K180" s="27"/>
       <c r="L180" s="27" t="n">
@@ -11456,23 +11462,23 @@
         <v>44</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
       <c r="F181" s="27"/>
       <c r="G181" s="27"/>
       <c r="H181" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J181" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K181" s="27"/>
       <c r="L181" s="27" t="n">
@@ -11499,12 +11505,12 @@
         <v>75</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C182" s="31"/>
       <c r="J182" s="31"/>
       <c r="O182" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z182" s="14"/>
       <c r="AA182" s="14"/>
@@ -11514,13 +11520,13 @@
         <v>158</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J183" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L183" s="1" t="n">
         <v>1</v>
@@ -11534,7 +11540,7 @@
         <v>21</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C184" s="35" t="s">
         <v>236</v>
@@ -11546,7 +11552,7 @@
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
       <c r="J184" s="27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K184" s="27"/>
       <c r="L184" s="27"/>
@@ -11569,10 +11575,10 @@
         <v>21</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="27"/>
@@ -11581,7 +11587,7 @@
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
       <c r="J185" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K185" s="27"/>
       <c r="L185" s="27"/>
@@ -11604,11 +11610,11 @@
         <v>75</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C186" s="31"/>
       <c r="O186" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z186" s="14"/>
       <c r="AA186" s="14"/>
@@ -11618,10 +11624,10 @@
         <v>21</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D187" s="27"/>
       <c r="E187" s="27"/>
@@ -11630,7 +11636,7 @@
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
       <c r="J187" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K187" s="27"/>
       <c r="L187" s="27"/>
@@ -11653,12 +11659,12 @@
         <v>75</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C188" s="31"/>
       <c r="J188" s="31"/>
       <c r="O188" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z188" s="14"/>
       <c r="AA188" s="14"/>
@@ -11668,13 +11674,13 @@
         <v>158</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J189" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L189" s="1" t="n">
         <v>1</v>
@@ -11688,7 +11694,7 @@
         <v>21</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C190" s="35" t="s">
         <v>236</v>
@@ -11700,7 +11706,7 @@
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
       <c r="J190" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K190" s="27"/>
       <c r="L190" s="27"/>
@@ -11723,13 +11729,13 @@
         <v>21</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O191" s="31"/>
       <c r="Z191" s="14"/>
@@ -11740,11 +11746,11 @@
         <v>75</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C192" s="31"/>
       <c r="O192" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z192" s="14"/>
       <c r="AA192" s="14"/>
@@ -11754,10 +11760,10 @@
         <v>21</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D193" s="27"/>
       <c r="E193" s="27"/>
@@ -11766,7 +11772,7 @@
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
       <c r="J193" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K193" s="27"/>
       <c r="L193" s="27"/>
@@ -11789,11 +11795,11 @@
         <v>75</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C194" s="31"/>
       <c r="O194" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z194" s="14"/>
       <c r="AA194" s="14"/>
@@ -11803,13 +11809,13 @@
         <v>158</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J195" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L195" s="1" t="n">
         <v>1</v>
@@ -11823,13 +11829,13 @@
         <v>21</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O196" s="31"/>
       <c r="Z196" s="14"/>
@@ -11840,7 +11846,7 @@
         <v>21</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C197" s="35" t="s">
         <v>236</v>
@@ -11852,7 +11858,7 @@
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
       <c r="J197" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K197" s="27"/>
       <c r="L197" s="27"/>
@@ -11875,11 +11881,11 @@
         <v>75</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C198" s="31"/>
       <c r="O198" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11887,13 +11893,13 @@
         <v>21</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J199" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O199" s="31"/>
     </row>
@@ -11902,13 +11908,13 @@
         <v>21</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C200" s="31" t="s">
         <v>290</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O200" s="31"/>
       <c r="Z200" s="14"/>
@@ -11962,10 +11968,10 @@
         <v>25</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="1"/>
@@ -11997,10 +12003,10 @@
         <v>140</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="1"/>
@@ -12009,7 +12015,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K205" s="1"/>
       <c r="L205" s="1" t="n">
@@ -12034,7 +12040,7 @@
         <v>75</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C206" s="28"/>
       <c r="D206" s="27"/>
@@ -12049,7 +12055,7 @@
       <c r="M206" s="27"/>
       <c r="N206" s="27"/>
       <c r="O206" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P206" s="27"/>
       <c r="Q206" s="27"/>
@@ -12098,10 +12104,10 @@
         <v>158</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="1"/>
@@ -12110,7 +12116,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1" t="n">
@@ -12135,10 +12141,10 @@
         <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="1"/>
@@ -12147,7 +12153,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -12170,7 +12176,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C210" s="42" t="s">
         <v>236</v>
@@ -12182,7 +12188,7 @@
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
       <c r="J210" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K210" s="24"/>
       <c r="L210" s="24"/>
@@ -12205,21 +12211,21 @@
         <v>44</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D211" s="21"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -12242,7 +12248,7 @@
         <v>74</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z212" s="18"/>
       <c r="AA212" s="18"/>
@@ -12279,10 +12285,10 @@
         <v>25</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="1"/>
@@ -12313,10 +12319,10 @@
         <v>140</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="1"/>
@@ -12325,7 +12331,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K215" s="1"/>
       <c r="L215" s="1" t="n">
@@ -12350,7 +12356,7 @@
         <v>75</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C216" s="28"/>
       <c r="D216" s="27"/>
@@ -12365,7 +12371,7 @@
       <c r="M216" s="27"/>
       <c r="N216" s="27"/>
       <c r="O216" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P216" s="27"/>
       <c r="Q216" s="27"/>
@@ -12414,10 +12420,10 @@
         <v>158</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="1"/>
@@ -12426,7 +12432,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K218" s="1"/>
       <c r="L218" s="1" t="n">
@@ -12451,10 +12457,10 @@
         <v>21</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="1"/>
@@ -12463,7 +12469,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -12486,7 +12492,7 @@
         <v>21</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C220" s="42" t="s">
         <v>236</v>
@@ -12498,7 +12504,7 @@
       <c r="H220" s="24"/>
       <c r="I220" s="24"/>
       <c r="J220" s="24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K220" s="24"/>
       <c r="L220" s="24"/>
@@ -12521,28 +12527,28 @@
         <v>44</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
@@ -12560,10 +12566,10 @@
         <v>74</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z222" s="18"/>
       <c r="AA222" s="18"/>
@@ -12577,16 +12583,16 @@
         <v>25</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Z225" s="18"/>
       <c r="AA225" s="18"/>
@@ -12596,10 +12602,10 @@
         <v>140</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="1"/>
@@ -12631,7 +12637,7 @@
         <v>75</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C227" s="28"/>
       <c r="D227" s="27"/>
@@ -12646,7 +12652,7 @@
       <c r="M227" s="27"/>
       <c r="N227" s="27"/>
       <c r="O227" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P227" s="27"/>
       <c r="Q227" s="27"/>
@@ -12695,10 +12701,10 @@
         <v>158</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="1"/>
@@ -12707,7 +12713,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K229" s="1"/>
       <c r="L229" s="1" t="n">
@@ -12732,28 +12738,28 @@
         <v>44</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
@@ -12771,10 +12777,10 @@
         <v>21</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="1"/>
@@ -12783,7 +12789,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -12806,10 +12812,10 @@
         <v>21</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="24"/>
@@ -12818,7 +12824,7 @@
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
       <c r="J232" s="24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K232" s="24"/>
       <c r="L232" s="24"/>
@@ -12841,7 +12847,7 @@
         <v>74</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="21"/>
@@ -12899,10 +12905,10 @@
         <v>25</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="1"/>
@@ -12913,7 +12919,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -12936,10 +12942,10 @@
         <v>140</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="1"/>
@@ -12948,7 +12954,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1" t="n">
@@ -12973,10 +12979,10 @@
         <v>21</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="1"/>
@@ -13008,7 +13014,7 @@
         <v>75</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C238" s="28"/>
       <c r="D238" s="27"/>
@@ -13023,7 +13029,7 @@
       <c r="M238" s="27"/>
       <c r="N238" s="27"/>
       <c r="O238" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P238" s="27"/>
       <c r="Q238" s="27"/>
@@ -13072,10 +13078,10 @@
         <v>158</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D240" s="21"/>
       <c r="E240" s="1"/>
@@ -13084,7 +13090,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="n">
@@ -13109,21 +13115,21 @@
         <v>44</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -13146,10 +13152,10 @@
         <v>21</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D242" s="21"/>
       <c r="E242" s="1"/>
@@ -13158,7 +13164,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -13181,7 +13187,7 @@
         <v>21</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C243" s="42" t="s">
         <v>236</v>
@@ -13193,7 +13199,7 @@
       <c r="H243" s="24"/>
       <c r="I243" s="24"/>
       <c r="J243" s="24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K243" s="24"/>
       <c r="L243" s="24"/>
@@ -13216,7 +13222,7 @@
         <v>74</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="21"/>
@@ -13274,10 +13280,10 @@
         <v>25</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="1"/>
@@ -13288,7 +13294,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -13311,10 +13317,10 @@
         <v>140</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D247" s="21"/>
       <c r="E247" s="1"/>
@@ -13323,7 +13329,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="n">
@@ -13348,10 +13354,10 @@
         <v>21</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D248" s="21"/>
       <c r="E248" s="1"/>
@@ -13383,7 +13389,7 @@
         <v>75</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C249" s="28"/>
       <c r="D249" s="27"/>
@@ -13398,7 +13404,7 @@
       <c r="M249" s="27"/>
       <c r="N249" s="27"/>
       <c r="O249" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P249" s="27"/>
       <c r="Q249" s="27"/>
@@ -13447,10 +13453,10 @@
         <v>158</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="1"/>
@@ -13459,7 +13465,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K251" s="1"/>
       <c r="L251" s="1" t="n">
@@ -13484,21 +13490,21 @@
         <v>44</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -13521,10 +13527,10 @@
         <v>21</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="1"/>
@@ -13533,7 +13539,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -13556,7 +13562,7 @@
         <v>21</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C254" s="42" t="s">
         <v>236</v>
@@ -13568,7 +13574,7 @@
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
       <c r="J254" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K254" s="24"/>
       <c r="L254" s="24"/>
@@ -13591,7 +13597,7 @@
         <v>74</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C255" s="22"/>
       <c r="D255" s="23"/>
@@ -13649,10 +13655,10 @@
         <v>25</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="1"/>
@@ -13663,7 +13669,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -13686,10 +13692,10 @@
         <v>140</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="1"/>
@@ -13721,21 +13727,21 @@
         <v>44</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D259" s="21"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -13758,7 +13764,7 @@
         <v>75</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C260" s="28"/>
       <c r="D260" s="27"/>
@@ -13773,7 +13779,7 @@
       <c r="M260" s="27"/>
       <c r="N260" s="27"/>
       <c r="O260" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P260" s="27"/>
       <c r="Q260" s="27"/>
@@ -13822,10 +13828,10 @@
         <v>158</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="1"/>
@@ -13834,7 +13840,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K262" s="1"/>
       <c r="L262" s="1" t="n">
@@ -13859,10 +13865,10 @@
         <v>21</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="1"/>
@@ -13871,7 +13877,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -13894,10 +13900,10 @@
         <v>21</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C264" s="42" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D264" s="26"/>
       <c r="E264" s="24"/>
@@ -13906,7 +13912,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
       <c r="J264" s="24" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K264" s="24"/>
       <c r="L264" s="24"/>
@@ -13929,7 +13935,7 @@
         <v>74</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C265" s="22"/>
       <c r="D265" s="23"/>
@@ -13960,10 +13966,10 @@
         <v>25</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>28</v>
@@ -13976,10 +13982,10 @@
         <v>21</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Z267" s="18"/>
       <c r="AA267" s="18"/>
@@ -13989,10 +13995,10 @@
         <v>75</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z268" s="18"/>
       <c r="AA268" s="18"/>
@@ -14002,13 +14008,13 @@
         <v>21</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J269" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Z269" s="18"/>
       <c r="AA269" s="18"/>
@@ -14018,10 +14024,10 @@
         <v>75</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Z270" s="18"/>
       <c r="AA270" s="18"/>
@@ -14031,10 +14037,10 @@
         <v>21</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -14043,7 +14049,7 @@
       <c r="H271" s="11"/>
       <c r="I271" s="11"/>
       <c r="J271" s="11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K271" s="11"/>
       <c r="L271" s="11"/>
@@ -14068,10 +14074,10 @@
         <v>75</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z272" s="18"/>
       <c r="AA272" s="18"/>
@@ -14081,10 +14087,10 @@
         <v>21</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -14093,7 +14099,7 @@
       <c r="H273" s="11"/>
       <c r="I273" s="11"/>
       <c r="J273" s="11" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K273" s="11"/>
       <c r="L273" s="11"/>
@@ -14118,10 +14124,10 @@
         <v>75</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Z274" s="18"/>
       <c r="AA274" s="18"/>
@@ -14131,10 +14137,10 @@
         <v>21</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -14143,7 +14149,7 @@
       <c r="H275" s="11"/>
       <c r="I275" s="11"/>
       <c r="J275" s="11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K275" s="11"/>
       <c r="L275" s="11"/>
@@ -14168,10 +14174,10 @@
         <v>75</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z276" s="18"/>
       <c r="AA276" s="18"/>
@@ -14181,10 +14187,10 @@
         <v>21</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -14193,7 +14199,7 @@
       <c r="H277" s="11"/>
       <c r="I277" s="11"/>
       <c r="J277" s="11" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K277" s="11"/>
       <c r="L277" s="11"/>
@@ -14234,10 +14240,10 @@
         <v>75</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Z280" s="18"/>
       <c r="AA280" s="18"/>
@@ -14247,10 +14253,10 @@
         <v>21</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -14259,7 +14265,7 @@
       <c r="H281" s="11"/>
       <c r="I281" s="11"/>
       <c r="J281" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K281" s="11"/>
       <c r="L281" s="11"/>
@@ -14284,10 +14290,10 @@
         <v>75</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O282" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Z282" s="18"/>
       <c r="AA282" s="18"/>
@@ -14297,10 +14303,10 @@
         <v>21</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -14309,7 +14315,7 @@
       <c r="H283" s="11"/>
       <c r="I283" s="11"/>
       <c r="J283" s="11" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K283" s="11"/>
       <c r="L283" s="11"/>
@@ -14334,10 +14340,10 @@
         <v>75</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O284" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Z284" s="18"/>
       <c r="AA284" s="18"/>
@@ -14347,10 +14353,10 @@
         <v>21</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -14359,7 +14365,7 @@
       <c r="H285" s="11"/>
       <c r="I285" s="11"/>
       <c r="J285" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K285" s="11"/>
       <c r="L285" s="11"/>
@@ -14392,10 +14398,10 @@
         <v>75</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z287" s="18"/>
       <c r="AA287" s="18"/>
@@ -14405,13 +14411,13 @@
         <v>21</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Z288" s="18"/>
       <c r="AA288" s="18"/>
@@ -14421,10 +14427,10 @@
         <v>75</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Z289" s="18"/>
       <c r="AA289" s="18"/>
@@ -14434,13 +14440,13 @@
         <v>21</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z290" s="18"/>
       <c r="AA290" s="18"/>
@@ -14450,10 +14456,10 @@
         <v>75</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z291" s="18"/>
       <c r="AA291" s="18"/>
@@ -14463,13 +14469,13 @@
         <v>21</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Z292" s="18"/>
       <c r="AA292" s="18"/>
@@ -14479,10 +14485,10 @@
         <v>75</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O293" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Z293" s="18"/>
       <c r="AA293" s="18"/>
@@ -14492,13 +14498,13 @@
         <v>21</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Z294" s="18"/>
       <c r="AA294" s="18"/>
@@ -14508,10 +14514,10 @@
         <v>75</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O295" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Z295" s="18"/>
       <c r="AA295" s="18"/>
@@ -14521,13 +14527,13 @@
         <v>21</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z296" s="18"/>
       <c r="AA296" s="18"/>
@@ -14537,10 +14543,10 @@
         <v>75</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O297" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z297" s="18"/>
       <c r="AA297" s="18"/>
@@ -14550,13 +14556,13 @@
         <v>21</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Z298" s="18"/>
       <c r="AA298" s="18"/>
@@ -14593,13 +14599,13 @@
         <v>21</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C300" s="27" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="O300" s="31"/>
       <c r="Z300" s="14"/>
@@ -14610,13 +14616,13 @@
         <v>21</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O301" s="31"/>
       <c r="Z301" s="14"/>
@@ -14627,7 +14633,7 @@
         <v>74</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="21"/>
@@ -14642,7 +14648,7 @@
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
@@ -39595,7 +39601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" activeCellId="1" sqref="78:78 D21"/>
+      <selection pane="bottomRight" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39611,255 +39617,255 @@
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B2" s="52" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L2" s="52"/>
     </row>
     <row r="3" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="52" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B3" s="52" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="56" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B4" s="56" t="n">
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B5" s="56" t="n">
         <v>9</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B6" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B7" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B8" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="56" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B9" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="56" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B10" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="56" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B11" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="56" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B12" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="56" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B13" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="56" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B14" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="56" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B15" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B16" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B17" s="56" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="56" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B18" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="56" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B19" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B20" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B21" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B22" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39869,141 +39875,141 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="56" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B24" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="56" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B25" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="56" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B26" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="56" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B27" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="56" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B28" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B29" s="57" t="n">
         <v>3</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="56" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B30" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="56" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B31" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="56" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B32" s="57" t="n">
         <v>3</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="56" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B33" s="57" t="n">
         <v>4</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="56" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B34" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="56" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B35" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H35" s="58"/>
     </row>
@@ -41313,7 +41319,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="78:78 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41327,46 +41333,46 @@
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="68" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C2" s="52" t="str">
         <f aca="true">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2302212249</v>
+        <v>2303271302</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="70"/>
       <c r="F2" s="52" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -41388,10 +41394,10 @@
   <dimension ref="A1:AD154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="1" sqref="78:78 A61"/>
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="36"/>
@@ -41400,7 +41406,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B1" s="71"/>
     </row>
@@ -41410,7 +41416,7 @@
     </row>
     <row r="3" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B3" s="73"/>
     </row>
@@ -41422,16 +41428,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -41443,10 +41449,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>9</v>
@@ -41458,10 +41464,10 @@
         <v>11</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -41473,22 +41479,22 @@
         <v>15</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>19</v>
@@ -41508,99 +41514,99 @@
     </row>
     <row r="6" s="76" customFormat="true" ht="186" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K6" s="75" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L6" s="75" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M6" s="75" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N6" s="75" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="O6" s="75" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Q6" s="75" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="U6" s="75" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="V6" s="75" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="W6" s="75" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="X6" s="75" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="Y6" s="75" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Z6" s="75" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AA6" s="75" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AB6" s="75" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AC6" s="75" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AD6" s="75" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="77" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="78"/>
@@ -41634,13 +41640,13 @@
     </row>
     <row r="10" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="81" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -41672,20 +41678,20 @@
     </row>
     <row r="11" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="81" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
       <c r="H11" s="81" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
@@ -41712,13 +41718,13 @@
     </row>
     <row r="12" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -41750,13 +41756,13 @@
     </row>
     <row r="13" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="81" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -41788,13 +41794,13 @@
     </row>
     <row r="14" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -41826,20 +41832,20 @@
     </row>
     <row r="15" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
@@ -41866,20 +41872,20 @@
     </row>
     <row r="16" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
       <c r="G16" s="81"/>
       <c r="H16" s="81" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
@@ -41906,20 +41912,20 @@
     </row>
     <row r="17" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
       <c r="H17" s="81" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
@@ -41946,20 +41952,20 @@
     </row>
     <row r="18" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
@@ -41986,20 +41992,20 @@
     </row>
     <row r="19" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
@@ -42026,20 +42032,20 @@
     </row>
     <row r="20" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
@@ -42066,20 +42072,20 @@
     </row>
     <row r="21" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
@@ -42106,20 +42112,20 @@
     </row>
     <row r="22" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
@@ -42146,20 +42152,20 @@
     </row>
     <row r="23" s="83" customFormat="true" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
@@ -42186,20 +42192,20 @@
     </row>
     <row r="24" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
       <c r="H24" s="81" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
@@ -42226,20 +42232,20 @@
     </row>
     <row r="25" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
@@ -42266,20 +42272,20 @@
     </row>
     <row r="26" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
@@ -42306,20 +42312,20 @@
     </row>
     <row r="27" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
@@ -42346,20 +42352,20 @@
     </row>
     <row r="28" s="83" customFormat="true" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="81" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="81"/>
       <c r="H28" s="81" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
@@ -42386,13 +42392,13 @@
     </row>
     <row r="29" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
@@ -42424,20 +42430,20 @@
     </row>
     <row r="30" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
@@ -42464,20 +42470,20 @@
     </row>
     <row r="31" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
@@ -42504,20 +42510,20 @@
     </row>
     <row r="32" s="83" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
       <c r="H32" s="81" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I32" s="81"/>
       <c r="J32" s="81"/>
@@ -42544,20 +42550,20 @@
     </row>
     <row r="33" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
       <c r="F33" s="81"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="I33" s="81"/>
       <c r="J33" s="81"/>
@@ -42584,20 +42590,20 @@
     </row>
     <row r="34" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
@@ -42624,20 +42630,20 @@
     </row>
     <row r="35" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I35" s="81"/>
       <c r="J35" s="81"/>
@@ -42664,20 +42670,20 @@
     </row>
     <row r="36" s="83" customFormat="true" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
       <c r="H36" s="81" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I36" s="81"/>
       <c r="J36" s="81"/>
@@ -42704,20 +42710,20 @@
     </row>
     <row r="37" s="83" customFormat="true" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="81" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
       <c r="G37" s="81"/>
       <c r="H37" s="81" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I37" s="81"/>
       <c r="J37" s="81"/>
@@ -42744,13 +42750,13 @@
     </row>
     <row r="38" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="81" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
@@ -42782,13 +42788,13 @@
     </row>
     <row r="39" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="81" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D39" s="81"/>
       <c r="E39" s="81"/>
@@ -42820,13 +42826,13 @@
     </row>
     <row r="40" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="81" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
@@ -42858,13 +42864,13 @@
     </row>
     <row r="41" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="81" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D41" s="81"/>
       <c r="E41" s="81"/>
@@ -42899,10 +42905,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
@@ -42937,17 +42943,17 @@
         <v>44</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
       <c r="H43" s="81" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I43" s="81"/>
       <c r="J43" s="81"/>
@@ -42974,13 +42980,13 @@
     </row>
     <row r="44" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="81" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D44" s="81"/>
       <c r="E44" s="81"/>
@@ -43012,20 +43018,20 @@
     </row>
     <row r="45" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="81" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D45" s="81"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I45" s="81"/>
       <c r="J45" s="81"/>
@@ -43052,13 +43058,13 @@
     </row>
     <row r="46" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
@@ -43090,20 +43096,20 @@
     </row>
     <row r="47" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="81" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
       <c r="H47" s="81" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="I47" s="81"/>
       <c r="J47" s="81"/>
@@ -43130,20 +43136,20 @@
     </row>
     <row r="48" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="81" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
       <c r="G48" s="81"/>
       <c r="H48" s="81" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I48" s="81"/>
       <c r="J48" s="81"/>
@@ -43170,20 +43176,20 @@
     </row>
     <row r="49" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="81" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
       <c r="G49" s="81"/>
       <c r="H49" s="81" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I49" s="81"/>
       <c r="J49" s="81"/>
@@ -43210,13 +43216,13 @@
     </row>
     <row r="50" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="81" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
@@ -43248,13 +43254,13 @@
     </row>
     <row r="51" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="81" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
@@ -43286,13 +43292,13 @@
     </row>
     <row r="52" s="83" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="81" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
@@ -43327,10 +43333,10 @@
         <v>21</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -43362,10 +43368,10 @@
     </row>
     <row r="54" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="81" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B54" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C54" s="82"/>
       <c r="D54" s="81"/>
@@ -43398,10 +43404,10 @@
     </row>
     <row r="55" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="81" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C55" s="82"/>
       <c r="D55" s="81"/>
@@ -43434,10 +43440,10 @@
     </row>
     <row r="56" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="81" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B56" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C56" s="82"/>
       <c r="D56" s="81"/>
@@ -43470,10 +43476,10 @@
     </row>
     <row r="57" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="81" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B57" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C57" s="82"/>
       <c r="D57" s="81"/>
@@ -43506,10 +43512,10 @@
     </row>
     <row r="58" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="81" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B58" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C58" s="82"/>
       <c r="D58" s="81"/>
@@ -43542,10 +43548,10 @@
     </row>
     <row r="59" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="81" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B59" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C59" s="82"/>
       <c r="D59" s="81"/>
@@ -43578,10 +43584,10 @@
     </row>
     <row r="60" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="81" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="81"/>
@@ -43614,10 +43620,10 @@
     </row>
     <row r="61" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="81" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B61" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C61" s="82"/>
       <c r="D61" s="81"/>
@@ -43653,7 +43659,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C62" s="82"/>
       <c r="D62" s="81"/>
@@ -43671,7 +43677,7 @@
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="R62" s="81" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="S62" s="81"/>
       <c r="T62" s="81"/>
@@ -43688,10 +43694,10 @@
     </row>
     <row r="63" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="81" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B63" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C63" s="82"/>
       <c r="D63" s="81"/>
@@ -43709,7 +43715,7 @@
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="R63" s="81" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="S63" s="81"/>
       <c r="T63" s="81"/>
@@ -43726,10 +43732,10 @@
     </row>
     <row r="64" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="81" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B64" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C64" s="82"/>
       <c r="D64" s="81"/>
@@ -43737,7 +43743,7 @@
       <c r="F64" s="81"/>
       <c r="G64" s="81"/>
       <c r="H64" s="81" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="I64" s="81"/>
       <c r="J64" s="81"/>
@@ -43764,10 +43770,10 @@
     </row>
     <row r="65" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="81" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B65" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C65" s="82"/>
       <c r="D65" s="81"/>
@@ -43775,7 +43781,7 @@
       <c r="F65" s="81"/>
       <c r="G65" s="81"/>
       <c r="H65" s="81" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="I65" s="81"/>
       <c r="J65" s="81"/>
@@ -43802,10 +43808,10 @@
     </row>
     <row r="66" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="81" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B66" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C66" s="82"/>
       <c r="D66" s="81"/>
@@ -43813,7 +43819,7 @@
       <c r="F66" s="81"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I66" s="81"/>
       <c r="J66" s="81"/>
@@ -43840,10 +43846,10 @@
     </row>
     <row r="67" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="81" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B67" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C67" s="82"/>
       <c r="D67" s="81"/>
@@ -43851,7 +43857,7 @@
       <c r="F67" s="81"/>
       <c r="G67" s="81"/>
       <c r="H67" s="81" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I67" s="81"/>
       <c r="J67" s="81"/>
@@ -43881,10 +43887,10 @@
         <v>25</v>
       </c>
       <c r="B68" s="81" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D68" s="81"/>
       <c r="E68" s="81"/>
@@ -43916,7 +43922,7 @@
     </row>
     <row r="69" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="81" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B69" s="81"/>
       <c r="C69" s="82"/>
@@ -43953,7 +43959,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="81" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C70" s="82"/>
       <c r="D70" s="81"/>
@@ -43986,13 +43992,13 @@
     </row>
     <row r="71" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="81" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B71" s="81" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
@@ -44024,7 +44030,7 @@
     </row>
     <row r="72" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="81" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B72" s="81"/>
       <c r="C72" s="82"/>
@@ -44058,10 +44064,10 @@
     </row>
     <row r="73" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="B73" s="81" t="s">
         <v>765</v>
-      </c>
-      <c r="B73" s="81" t="s">
-        <v>763</v>
       </c>
       <c r="C73" s="82"/>
       <c r="D73" s="81"/>
@@ -44094,13 +44100,13 @@
     </row>
     <row r="74" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="81" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B74" s="81" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
@@ -44134,7 +44140,7 @@
     </row>
     <row r="75" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="81" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B75" s="81"/>
       <c r="C75" s="82"/>
@@ -44168,10 +44174,10 @@
     </row>
     <row r="76" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="B76" s="81" t="s">
         <v>765</v>
-      </c>
-      <c r="B76" s="81" t="s">
-        <v>763</v>
       </c>
       <c r="C76" s="82"/>
       <c r="D76" s="81"/>
@@ -44204,10 +44210,10 @@
     </row>
     <row r="77" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="81" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C77" s="82"/>
       <c r="D77" s="81"/>
@@ -44240,10 +44246,10 @@
     </row>
     <row r="78" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="81" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B78" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C78" s="82"/>
       <c r="D78" s="81"/>
@@ -44276,10 +44282,10 @@
     </row>
     <row r="79" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="81" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C79" s="82"/>
       <c r="D79" s="81"/>
@@ -44287,7 +44293,7 @@
       <c r="F79" s="81"/>
       <c r="G79" s="81"/>
       <c r="H79" s="81" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I79" s="81"/>
       <c r="J79" s="81"/>
@@ -44314,10 +44320,10 @@
     </row>
     <row r="80" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="81" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B80" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C80" s="82"/>
       <c r="D80" s="81"/>
@@ -44325,7 +44331,7 @@
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
       <c r="H80" s="81" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I80" s="81"/>
       <c r="J80" s="81"/>
@@ -44352,10 +44358,10 @@
     </row>
     <row r="81" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="81" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C81" s="82"/>
       <c r="D81" s="81"/>
@@ -44363,7 +44369,7 @@
       <c r="F81" s="81"/>
       <c r="G81" s="81"/>
       <c r="H81" s="81" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I81" s="81"/>
       <c r="J81" s="81"/>
@@ -44390,7 +44396,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="86" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B83" s="86"/>
       <c r="C83" s="87"/>
@@ -44424,27 +44430,27 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="90" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C85" s="90" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D85" s="90" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="91" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B86" s="91" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C86" s="91" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D86" s="91" t="n">
         <v>2</v>
@@ -44452,10 +44458,10 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="91" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B87" s="91" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C87" s="92" t="str">
         <f aca="false">"3 - 2"</f>
@@ -44467,13 +44473,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="91" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B88" s="91" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C88" s="91" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D88" s="91" t="n">
         <v>6</v>
@@ -44481,13 +44487,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="91" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C89" s="91" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D89" s="91" t="n">
         <v>5</v>
@@ -44495,13 +44501,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="91" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C90" s="91" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D90" s="91" t="n">
         <v>1</v>
@@ -44509,128 +44515,128 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="91" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C91" s="91" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D91" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="91" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B92" s="91" t="s">
+        <v>801</v>
+      </c>
+      <c r="C92" s="91" t="s">
+        <v>802</v>
+      </c>
+      <c r="D92" s="91" t="s">
         <v>799</v>
-      </c>
-      <c r="C92" s="91" t="s">
-        <v>800</v>
-      </c>
-      <c r="D92" s="91" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="91" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C93" s="91" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D93" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="91" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C94" s="91" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D94" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="91" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B95" s="91" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C95" s="91" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D95" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="91" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B96" s="91" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C96" s="91" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D96" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="91" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B97" s="91" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C97" s="91" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D97" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="91" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B98" s="91" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C98" s="91" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="91" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B99" s="91" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C99" s="91" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D99" s="91" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44642,540 +44648,540 @@
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="88"/>
       <c r="B101" s="90" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C101" s="90" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D101" s="88"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="88"/>
       <c r="B102" s="93" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C102" s="94" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D102" s="88"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="88"/>
       <c r="B103" s="94" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C103" s="94" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D103" s="88"/>
     </row>
     <row r="104" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="88"/>
       <c r="B104" s="94" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C104" s="94" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D104" s="88"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="88"/>
       <c r="B105" s="94" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D105" s="88"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="88"/>
       <c r="B106" s="94" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D106" s="88"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="88"/>
       <c r="B107" s="94" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D107" s="88"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="88"/>
       <c r="B108" s="94" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C108" s="94" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D108" s="88"/>
     </row>
     <row r="109" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="88"/>
       <c r="B109" s="94" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C109" s="94" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D109" s="88"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="88"/>
       <c r="B110" s="94" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C110" s="94" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D110" s="88"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="88"/>
       <c r="B111" s="94" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D111" s="88"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="88"/>
       <c r="B112" s="94" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C112" s="94" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D112" s="88"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="88"/>
       <c r="B113" s="94" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C113" s="94" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D113" s="88"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="88"/>
       <c r="B114" s="94" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C114" s="94" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D114" s="88"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="88"/>
       <c r="B115" s="94" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C115" s="94" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D115" s="88"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="88"/>
       <c r="B116" s="94" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C116" s="94" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D116" s="88"/>
     </row>
     <row r="117" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="88"/>
       <c r="B117" s="94" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C117" s="94" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D117" s="88"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="88"/>
       <c r="B118" s="94" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C118" s="94" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D118" s="88"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="88"/>
       <c r="B119" s="94" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C119" s="94" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D119" s="88"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="88"/>
       <c r="B120" s="94" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C120" s="94" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D120" s="88"/>
     </row>
     <row r="121" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="88"/>
       <c r="B121" s="94" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C121" s="94" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D121" s="88"/>
     </row>
     <row r="122" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="88"/>
       <c r="B122" s="94" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C122" s="94" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D122" s="88"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="88"/>
       <c r="B123" s="94" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D123" s="88"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="88"/>
       <c r="B124" s="94" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C124" s="94" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D124" s="88"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="88"/>
       <c r="B125" s="94" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C125" s="94" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D125" s="88"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="88"/>
       <c r="B126" s="94" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C126" s="94" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D126" s="88"/>
     </row>
     <row r="127" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="88"/>
       <c r="B127" s="94" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C127" s="94" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D127" s="88"/>
     </row>
     <row r="128" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="88"/>
       <c r="B128" s="94" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C128" s="94" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D128" s="88"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="88"/>
       <c r="B129" s="95" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D129" s="88"/>
     </row>
     <row r="130" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="88"/>
       <c r="B130" s="95" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C130" s="95" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D130" s="88"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="88"/>
       <c r="B131" s="95" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C131" s="95" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D131" s="88"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="88"/>
       <c r="B132" s="95" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C132" s="95" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D132" s="88"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="88"/>
       <c r="B133" s="95" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C133" s="95" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D133" s="88"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="88"/>
       <c r="B134" s="95" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C134" s="95" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D134" s="88"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="88"/>
       <c r="B135" s="95" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C135" s="95" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D135" s="88"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="88"/>
       <c r="B136" s="95" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C136" s="95" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D136" s="88"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="88"/>
       <c r="B137" s="95" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C137" s="95" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D137" s="88"/>
     </row>
     <row r="138" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="88"/>
       <c r="B138" s="95" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C138" s="95" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D138" s="88"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="88"/>
       <c r="B139" s="95" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C139" s="95" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D139" s="88"/>
     </row>
     <row r="140" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="88"/>
       <c r="B140" s="95" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C140" s="95" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D140" s="88"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="88"/>
       <c r="B141" s="95" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C141" s="95" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D141" s="88"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="88"/>
       <c r="B142" s="95" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C142" s="95" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D142" s="88"/>
     </row>
     <row r="143" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="88"/>
       <c r="B143" s="95" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C143" s="95" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D143" s="88"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="88"/>
       <c r="B144" s="95" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D144" s="88"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="88"/>
       <c r="B145" s="95" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C145" s="95" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D145" s="88"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="88"/>
       <c r="B146" s="95" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C146" s="95" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D146" s="88"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="88"/>
       <c r="B147" s="95" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C147" s="95" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D147" s="88"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="88"/>
       <c r="B148" s="95" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C148" s="95" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D148" s="88"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="88"/>
       <c r="B149" s="95" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C149" s="95" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D149" s="88"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="88"/>
       <c r="B150" s="95" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C150" s="95" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D150" s="88"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="88"/>
       <c r="B151" s="95" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C151" s="95" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D151" s="88"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="88"/>
       <c r="B152" s="95" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C152" s="95" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D152" s="88"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="88"/>
       <c r="B153" s="95" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C153" s="95" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D153" s="88"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="88"/>
       <c r="B154" s="95" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C154" s="95" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D154" s="88"/>
     </row>
@@ -45551,17 +45557,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="78:78 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B1" s="71"/>
     </row>
@@ -45571,54 +45577,54 @@
     </row>
     <row r="3" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B3" s="73"/>
     </row>
     <row r="5" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="true" ht="201" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H6" s="75"/>
     </row>
@@ -45646,17 +45652,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="78:78 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="97" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="98"/>
@@ -45674,7 +45680,7 @@
     </row>
     <row r="3" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="98"/>
@@ -45692,43 +45698,43 @@
     </row>
     <row r="5" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="99" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" s="76" customFormat="true" ht="309.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/forms/app/pev_enfant.xlsx
+++ b/forms/app/pev_enfant.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1145">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_uuid</t>
   </si>
   <si>
     <t xml:space="preserve">../inputs/contact/_id</t>
@@ -6167,8 +6170,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF404040"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7316,21 +7319,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A153" activeCellId="0" sqref="A153"/>
-      <selection pane="bottomRight" activeCell="H163" activeCellId="0" sqref="H163"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.13"/>
@@ -7348,7 +7351,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="55.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.12"/>
@@ -7919,14 +7922,14 @@
         <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5"/>
       <c r="F34" s="5"/>
       <c r="J34" s="5"/>
       <c r="M34" s="5"/>
       <c r="O34" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7941,7 +7944,7 @@
       <c r="J35" s="5"/>
       <c r="M35" s="5"/>
       <c r="O35" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7956,7 +7959,7 @@
       <c r="J36" s="5"/>
       <c r="M36" s="5"/>
       <c r="O36" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7973,7 +7976,7 @@
         <v>89</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>47</v>
@@ -7982,7 +7985,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="5"/>
       <c r="O38" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7990,7 +7993,7 @@
         <v>89</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>49</v>
@@ -7999,7 +8002,7 @@
       <c r="J39" s="5"/>
       <c r="M39" s="5"/>
       <c r="O39" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8007,7 +8010,7 @@
         <v>89</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>51</v>
@@ -8016,7 +8019,7 @@
       <c r="J40" s="5"/>
       <c r="M40" s="5"/>
       <c r="O40" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8024,7 +8027,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>53</v>
@@ -8033,7 +8036,7 @@
       <c r="J41" s="5"/>
       <c r="M41" s="5"/>
       <c r="O41" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8041,7 +8044,7 @@
         <v>89</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>55</v>
@@ -8050,7 +8053,7 @@
       <c r="J42" s="5"/>
       <c r="M42" s="5"/>
       <c r="O42" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8058,7 +8061,7 @@
         <v>89</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>57</v>
@@ -8067,7 +8070,7 @@
       <c r="J43" s="5"/>
       <c r="M43" s="5"/>
       <c r="O43" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8075,7 +8078,7 @@
         <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>59</v>
@@ -8084,7 +8087,7 @@
       <c r="J44" s="5"/>
       <c r="M44" s="5"/>
       <c r="O44" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8092,7 +8095,7 @@
         <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>61</v>
@@ -8101,7 +8104,7 @@
       <c r="J45" s="5"/>
       <c r="M45" s="5"/>
       <c r="O45" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8109,7 +8112,7 @@
         <v>89</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>63</v>
@@ -8118,7 +8121,7 @@
       <c r="J46" s="5"/>
       <c r="M46" s="5"/>
       <c r="O46" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8126,7 +8129,7 @@
         <v>89</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>65</v>
@@ -8135,7 +8138,7 @@
       <c r="J47" s="5"/>
       <c r="M47" s="5"/>
       <c r="O47" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8143,7 +8146,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>67</v>
@@ -8152,7 +8155,7 @@
       <c r="J48" s="5"/>
       <c r="M48" s="5"/>
       <c r="O48" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8160,7 +8163,7 @@
         <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>69</v>
@@ -8169,7 +8172,7 @@
       <c r="J49" s="5"/>
       <c r="M49" s="5"/>
       <c r="O49" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8177,7 +8180,7 @@
         <v>89</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>71</v>
@@ -8186,7 +8189,7 @@
       <c r="J50" s="5"/>
       <c r="M50" s="5"/>
       <c r="O50" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8194,7 +8197,7 @@
         <v>89</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>73</v>
@@ -8203,7 +8206,7 @@
       <c r="J51" s="5"/>
       <c r="M51" s="5"/>
       <c r="O51" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8211,7 +8214,7 @@
         <v>89</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>75</v>
@@ -8220,7 +8223,7 @@
       <c r="J52" s="5"/>
       <c r="M52" s="5"/>
       <c r="O52" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8228,7 +8231,7 @@
         <v>89</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>77</v>
@@ -8237,7 +8240,7 @@
       <c r="J53" s="5"/>
       <c r="M53" s="5"/>
       <c r="O53" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8245,7 +8248,7 @@
         <v>89</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>79</v>
@@ -8254,7 +8257,7 @@
       <c r="J54" s="5"/>
       <c r="M54" s="5"/>
       <c r="O54" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8262,7 +8265,7 @@
         <v>89</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>81</v>
@@ -8271,7 +8274,7 @@
       <c r="J55" s="5"/>
       <c r="M55" s="5"/>
       <c r="O55" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8279,7 +8282,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>83</v>
@@ -8288,7 +8291,7 @@
       <c r="J56" s="5"/>
       <c r="M56" s="5"/>
       <c r="O56" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8296,7 +8299,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>85</v>
@@ -8305,7 +8308,7 @@
       <c r="J57" s="5"/>
       <c r="M57" s="5"/>
       <c r="O57" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8313,7 +8316,7 @@
         <v>89</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>87</v>
@@ -8322,7 +8325,7 @@
       <c r="J58" s="5"/>
       <c r="M58" s="5"/>
       <c r="O58" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8375,10 +8378,10 @@
         <v>89</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -8392,7 +8395,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -8410,7 +8413,7 @@
         <v>89</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>47</v>
@@ -8446,7 +8449,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>49</v>
@@ -8482,7 +8485,7 @@
         <v>89</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>51</v>
@@ -8518,7 +8521,7 @@
         <v>89</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>53</v>
@@ -8554,7 +8557,7 @@
         <v>89</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>55</v>
@@ -8590,7 +8593,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>57</v>
@@ -8626,7 +8629,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>59</v>
@@ -8662,7 +8665,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>61</v>
@@ -8698,7 +8701,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>63</v>
@@ -8734,7 +8737,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>65</v>
@@ -8770,7 +8773,7 @@
         <v>89</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>67</v>
@@ -8806,7 +8809,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>69</v>
@@ -8824,7 +8827,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>71</v>
@@ -8842,7 +8845,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>73</v>
@@ -8878,7 +8881,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>75</v>
@@ -8914,7 +8917,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>77</v>
@@ -8950,7 +8953,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>79</v>
@@ -8986,7 +8989,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>81</v>
@@ -9022,7 +9025,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>83</v>
@@ -9058,7 +9061,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>85</v>
@@ -9094,7 +9097,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>87</v>
@@ -9130,7 +9133,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="1"/>
@@ -9145,7 +9148,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -9163,7 +9166,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="1"/>
@@ -9178,7 +9181,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -9196,7 +9199,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="1"/>
@@ -9211,7 +9214,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -9628,10 +9631,10 @@
         <v>25</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -9660,13 +9663,13 @@
     </row>
     <row r="118" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="1"/>
@@ -9680,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -9697,13 +9700,13 @@
     </row>
     <row r="119" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="1"/>
@@ -9712,14 +9715,14 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -9736,13 +9739,13 @@
     </row>
     <row r="120" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="1"/>
@@ -9751,7 +9754,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="n">
@@ -9773,13 +9776,13 @@
     </row>
     <row r="121" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="1"/>
@@ -9788,7 +9791,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="n">
@@ -9813,10 +9816,10 @@
         <v>21</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="1"/>
@@ -9825,7 +9828,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -9848,7 +9851,7 @@
         <v>88</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="19"/>
@@ -9883,10 +9886,10 @@
         <v>25</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>28</v>
@@ -9896,13 +9899,13 @@
     </row>
     <row r="126" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -9911,7 +9914,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1" t="n">
@@ -9936,10 +9939,10 @@
         <v>21</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="1"/>
@@ -9948,7 +9951,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -9968,13 +9971,13 @@
     </row>
     <row r="128" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="1"/>
@@ -9982,7 +9985,7 @@
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1" t="n">
@@ -10007,11 +10010,11 @@
         <v>89</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C129" s="22"/>
       <c r="O129" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10025,10 +10028,10 @@
         <v>21</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="1"/>
@@ -10037,7 +10040,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -10060,13 +10063,13 @@
         <v>21</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
@@ -10076,17 +10079,17 @@
         <v>44</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L133" s="11" t="n">
         <v>1</v>
@@ -10098,7 +10101,7 @@
         <v>88</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
@@ -10108,11 +10111,11 @@
         <v>89</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C135" s="24"/>
       <c r="O135" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
@@ -10122,11 +10125,11 @@
         <v>89</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C136" s="24"/>
       <c r="O136" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z136" s="11"/>
       <c r="AA136" s="11"/>
@@ -10136,11 +10139,11 @@
         <v>89</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C137" s="24"/>
       <c r="O137" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z137" s="11"/>
       <c r="AA137" s="11"/>
@@ -10150,11 +10153,11 @@
         <v>89</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C138" s="24"/>
       <c r="O138" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
@@ -10164,11 +10167,11 @@
         <v>89</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C139" s="24"/>
       <c r="O139" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z139" s="11"/>
       <c r="AA139" s="11"/>
@@ -10178,11 +10181,11 @@
         <v>89</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C140" s="24"/>
       <c r="O140" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z140" s="11"/>
       <c r="AA140" s="11"/>
@@ -10192,11 +10195,11 @@
         <v>89</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C141" s="24"/>
       <c r="O141" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z141" s="11"/>
       <c r="AA141" s="11"/>
@@ -10206,11 +10209,11 @@
         <v>89</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C142" s="24"/>
       <c r="O142" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z142" s="11"/>
       <c r="AA142" s="11"/>
@@ -10220,11 +10223,11 @@
         <v>89</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C143" s="24"/>
       <c r="O143" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z143" s="11"/>
       <c r="AA143" s="11"/>
@@ -10234,11 +10237,11 @@
         <v>89</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C144" s="24"/>
       <c r="O144" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
@@ -10248,11 +10251,11 @@
         <v>89</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C145" s="8"/>
       <c r="O145" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z145" s="11"/>
       <c r="AA145" s="11"/>
@@ -10262,11 +10265,11 @@
         <v>89</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C146" s="8"/>
       <c r="O146" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z146" s="11"/>
       <c r="AA146" s="11"/>
@@ -10283,10 +10286,10 @@
         <v>25</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -10320,7 +10323,7 @@
         <v>89</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C149" s="22"/>
       <c r="D149" s="11"/>
@@ -10335,7 +10338,7 @@
       <c r="M149" s="11"/>
       <c r="N149" s="11"/>
       <c r="O149" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
@@ -10356,11 +10359,11 @@
         <v>89</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C150" s="22"/>
       <c r="O150" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" s="11" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10368,11 +10371,11 @@
         <v>89</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C151" s="22"/>
       <c r="O151" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10380,11 +10383,11 @@
         <v>89</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C152" s="22"/>
       <c r="O152" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10410,7 +10413,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
       <c r="V153" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
@@ -10421,7 +10424,7 @@
       <c r="C154" s="22"/>
       <c r="O154" s="8"/>
       <c r="V154" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10447,7 +10450,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
       <c r="V155" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
@@ -10458,7 +10461,7 @@
       <c r="C156" s="22"/>
       <c r="O156" s="8"/>
       <c r="V156" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z156" s="11"/>
       <c r="AA156" s="11"/>
@@ -10496,16 +10499,16 @@
     </row>
     <row r="158" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L158" s="1" t="n">
         <v>1</v>
@@ -10526,23 +10529,23 @@
         <v>44</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
       <c r="F160" s="26"/>
       <c r="G160" s="26"/>
       <c r="H160" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K160" s="26"/>
       <c r="L160" s="26" t="n">
@@ -10558,7 +10561,7 @@
       <c r="T160" s="26"/>
       <c r="U160" s="26"/>
       <c r="V160" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W160" s="26"/>
       <c r="X160" s="26"/>
@@ -10572,26 +10575,26 @@
         <v>44</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H161" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L161" s="26" t="n">
         <v>1</v>
       </c>
       <c r="O161" s="8"/>
       <c r="V161" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" s="26" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10599,26 +10602,26 @@
         <v>44</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H162" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L162" s="26" t="n">
         <v>1</v>
       </c>
       <c r="O162" s="8"/>
       <c r="V162" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" s="26" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10626,26 +10629,26 @@
         <v>44</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H163" s="26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L163" s="26" t="n">
         <v>1</v>
       </c>
       <c r="O163" s="8"/>
       <c r="V163" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,7 +10656,7 @@
         <v>89</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="1"/>
@@ -10668,7 +10671,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -10712,16 +10715,16 @@
     </row>
     <row r="166" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L166" s="11" t="n">
         <v>1</v>
@@ -10733,10 +10736,10 @@
         <v>21</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D167" s="21"/>
       <c r="E167" s="11"/>
@@ -10745,7 +10748,7 @@
       <c r="H167" s="11"/>
       <c r="I167" s="11"/>
       <c r="J167" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K167" s="11"/>
       <c r="L167" s="11"/>
@@ -10771,13 +10774,13 @@
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O168" s="8"/>
       <c r="Z168" s="11"/>
@@ -10789,7 +10792,7 @@
         <v>89</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="1"/>
@@ -10804,7 +10807,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -10823,10 +10826,10 @@
         <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -10835,7 +10838,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -10859,25 +10862,25 @@
         <v>89</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C172" s="8"/>
       <c r="J172" s="8"/>
       <c r="O172" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z172" s="11"/>
       <c r="AA172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
@@ -10886,7 +10889,7 @@
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
       <c r="J173" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K173" s="11"/>
       <c r="L173" s="11" t="n">
@@ -10914,10 +10917,10 @@
         <v>21</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="11"/>
@@ -10926,7 +10929,7 @@
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
       <c r="J174" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
@@ -10952,13 +10955,13 @@
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O175" s="8"/>
       <c r="Z175" s="11"/>
@@ -10970,7 +10973,7 @@
         <v>89</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="1"/>
@@ -10985,7 +10988,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -11004,10 +11007,10 @@
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -11016,7 +11019,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -11040,24 +11043,24 @@
         <v>89</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C178" s="8"/>
       <c r="O178" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z178" s="11"/>
       <c r="AA178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
@@ -11066,7 +11069,7 @@
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
       <c r="J179" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K179" s="11"/>
       <c r="L179" s="11" t="n">
@@ -11094,10 +11097,10 @@
         <v>21</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D180" s="21"/>
       <c r="E180" s="11"/>
@@ -11106,7 +11109,7 @@
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
       <c r="J180" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K180" s="11"/>
       <c r="L180" s="11"/>
@@ -11132,13 +11135,13 @@
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O181" s="8"/>
       <c r="Z181" s="11"/>
@@ -11150,10 +11153,10 @@
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -11162,7 +11165,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -11186,7 +11189,7 @@
         <v>89</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="1"/>
@@ -11201,7 +11204,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -11220,7 +11223,7 @@
         <v>89</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="11"/>
@@ -11235,7 +11238,7 @@
       <c r="M184" s="11"/>
       <c r="N184" s="11"/>
       <c r="O184" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P184" s="11"/>
       <c r="Q184" s="11"/>
@@ -11253,13 +11256,13 @@
     </row>
     <row r="185" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -11268,7 +11271,7 @@
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
       <c r="J185" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K185" s="11"/>
       <c r="L185" s="11" t="n">
@@ -11296,10 +11299,10 @@
         <v>21</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="11"/>
@@ -11308,7 +11311,7 @@
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
       <c r="J186" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
@@ -11334,13 +11337,13 @@
         <v>21</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J187" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O187" s="8"/>
     </row>
@@ -11349,10 +11352,10 @@
         <v>21</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -11361,7 +11364,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -11385,11 +11388,11 @@
         <v>89</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C189" s="8"/>
       <c r="O189" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" s="11" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11397,10 +11400,10 @@
         <v>21</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -11409,7 +11412,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -11433,7 +11436,7 @@
         <v>88</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O191" s="8"/>
       <c r="Z191" s="11"/>
@@ -11472,10 +11475,10 @@
         <v>25</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -11486,7 +11489,7 @@
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
       <c r="J193" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
@@ -11512,7 +11515,7 @@
         <v>89</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C194" s="22"/>
       <c r="D194" s="11"/>
@@ -11527,7 +11530,7 @@
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
       <c r="O194" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P194" s="11"/>
       <c r="Q194" s="11"/>
@@ -11548,11 +11551,11 @@
         <v>89</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C195" s="22"/>
       <c r="O195" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11560,11 +11563,11 @@
         <v>89</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C196" s="22"/>
       <c r="O196" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11629,16 +11632,16 @@
     </row>
     <row r="200" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L200" s="1" t="n">
         <v>1</v>
@@ -11653,26 +11656,26 @@
         <v>44</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C201" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H201" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I201" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J201" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L201" s="26" t="n">
         <v>1</v>
       </c>
       <c r="O201" s="8"/>
       <c r="V201" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" s="28" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11680,23 +11683,23 @@
         <v>44</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C202" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D202" s="26"/>
       <c r="E202" s="26"/>
       <c r="F202" s="26"/>
       <c r="G202" s="26"/>
       <c r="H202" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J202" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K202" s="26"/>
       <c r="L202" s="26" t="n">
@@ -11712,7 +11715,7 @@
       <c r="T202" s="26"/>
       <c r="U202" s="26"/>
       <c r="V202" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W202" s="26"/>
       <c r="X202" s="26"/>
@@ -11726,26 +11729,26 @@
         <v>44</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H203" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J203" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L203" s="26" t="n">
         <v>1</v>
       </c>
       <c r="O203" s="8"/>
       <c r="V203" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11753,7 +11756,7 @@
         <v>89</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C204" s="8"/>
       <c r="D204" s="1"/>
@@ -11768,7 +11771,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
@@ -11784,13 +11787,13 @@
     </row>
     <row r="205" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -11799,7 +11802,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K205" s="1"/>
       <c r="L205" s="1" t="n">
@@ -11825,14 +11828,14 @@
         <v>21</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C206" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D206" s="21"/>
       <c r="J206" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11840,10 +11843,10 @@
         <v>21</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -11852,7 +11855,7 @@
       <c r="H207" s="11"/>
       <c r="I207" s="11"/>
       <c r="J207" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
@@ -11878,11 +11881,11 @@
         <v>89</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C208" s="8"/>
       <c r="O208" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z208" s="11"/>
       <c r="AA208" s="11"/>
@@ -11893,13 +11896,13 @@
         <v>21</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C209" s="30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J209" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O209" s="8"/>
     </row>
@@ -11908,7 +11911,7 @@
         <v>89</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C210" s="8"/>
       <c r="D210" s="1"/>
@@ -11923,7 +11926,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
@@ -11939,16 +11942,16 @@
     </row>
     <row r="211" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L211" s="1" t="n">
         <v>1</v>
@@ -11963,14 +11966,14 @@
         <v>21</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D212" s="21"/>
       <c r="J212" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11978,13 +11981,13 @@
         <v>21</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O213" s="8"/>
       <c r="Z213" s="11"/>
@@ -11995,11 +11998,11 @@
         <v>89</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C214" s="8"/>
       <c r="O214" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z214" s="11"/>
       <c r="AA214" s="11"/>
@@ -12010,13 +12013,13 @@
         <v>21</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J215" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O215" s="8"/>
     </row>
@@ -12025,27 +12028,27 @@
         <v>89</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C216" s="8"/>
       <c r="O216" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z216" s="11"/>
       <c r="AA216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L217" s="1" t="n">
         <v>1</v>
@@ -12060,10 +12063,10 @@
         <v>21</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -12072,7 +12075,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -12096,10 +12099,10 @@
         <v>21</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="11"/>
@@ -12108,7 +12111,7 @@
       <c r="H219" s="11"/>
       <c r="I219" s="11"/>
       <c r="J219" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K219" s="11"/>
       <c r="L219" s="11"/>
@@ -12134,7 +12137,7 @@
         <v>89</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="11"/>
@@ -12149,7 +12152,7 @@
       <c r="M220" s="11"/>
       <c r="N220" s="11"/>
       <c r="O220" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P220" s="11"/>
       <c r="Q220" s="11"/>
@@ -12170,10 +12173,10 @@
         <v>21</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -12182,7 +12185,7 @@
       <c r="H221" s="11"/>
       <c r="I221" s="11"/>
       <c r="J221" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K221" s="11"/>
       <c r="L221" s="11"/>
@@ -12208,10 +12211,10 @@
         <v>21</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -12220,7 +12223,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -12244,7 +12247,7 @@
         <v>88</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="1"/>
@@ -12304,10 +12307,10 @@
         <v>25</v>
       </c>
       <c r="B225" s="32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D225" s="32"/>
       <c r="E225" s="32"/>
@@ -12318,7 +12321,7 @@
       <c r="H225" s="32"/>
       <c r="I225" s="32"/>
       <c r="J225" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K225" s="32"/>
       <c r="L225" s="32"/>
@@ -12344,7 +12347,7 @@
         <v>89</v>
       </c>
       <c r="B226" s="32" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C226" s="35"/>
       <c r="D226" s="32"/>
@@ -12359,7 +12362,7 @@
       <c r="M226" s="32"/>
       <c r="N226" s="32"/>
       <c r="O226" s="33" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P226" s="32"/>
       <c r="Q226" s="32"/>
@@ -12380,7 +12383,7 @@
         <v>89</v>
       </c>
       <c r="B227" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C227" s="35"/>
       <c r="D227" s="32"/>
@@ -12395,7 +12398,7 @@
       <c r="M227" s="32"/>
       <c r="N227" s="32"/>
       <c r="O227" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P227" s="32"/>
       <c r="Q227" s="32"/>
@@ -12416,24 +12419,24 @@
         <v>89</v>
       </c>
       <c r="B228" s="32" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C228" s="35"/>
       <c r="O228" s="33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z228" s="34"/>
       <c r="AA228" s="34"/>
     </row>
     <row r="229" s="32" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C229" s="37" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D229" s="36"/>
       <c r="E229" s="36"/>
@@ -12442,7 +12445,7 @@
       <c r="H229" s="36"/>
       <c r="I229" s="36"/>
       <c r="J229" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K229" s="36"/>
       <c r="L229" s="36" t="n">
@@ -12469,26 +12472,26 @@
         <v>44</v>
       </c>
       <c r="B230" s="32" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H230" s="32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I230" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J230" s="32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L230" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O230" s="33"/>
       <c r="V230" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z230" s="34"/>
       <c r="AA230" s="34"/>
@@ -12498,26 +12501,26 @@
         <v>44</v>
       </c>
       <c r="B231" s="32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C231" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H231" s="32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I231" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J231" s="32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L231" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O231" s="33"/>
       <c r="V231" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z231" s="34"/>
       <c r="AA231" s="34"/>
@@ -12527,26 +12530,26 @@
         <v>44</v>
       </c>
       <c r="B232" s="32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H232" s="32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I232" s="33" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J232" s="32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L232" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O232" s="33"/>
       <c r="V232" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z232" s="34"/>
       <c r="AA232" s="34"/>
@@ -12556,28 +12559,28 @@
         <v>89</v>
       </c>
       <c r="B233" s="32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C233" s="33"/>
       <c r="J233" s="33"/>
       <c r="O233" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z233" s="34"/>
       <c r="AA233" s="34"/>
     </row>
     <row r="234" s="32" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B234" s="32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J234" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L234" s="32" t="n">
         <v>1</v>
@@ -12591,13 +12594,13 @@
         <v>21</v>
       </c>
       <c r="B235" s="32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J235" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O235" s="33"/>
       <c r="Z235" s="34"/>
@@ -12614,28 +12617,28 @@
         <v>89</v>
       </c>
       <c r="B237" s="32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C237" s="33"/>
       <c r="J237" s="33"/>
       <c r="O237" s="33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z237" s="34"/>
       <c r="AA237" s="34"/>
     </row>
     <row r="238" s="32" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B238" s="32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C238" s="33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J238" s="33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L238" s="32" t="n">
         <v>1</v>
@@ -12649,13 +12652,13 @@
         <v>21</v>
       </c>
       <c r="B239" s="32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C239" s="33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J239" s="32" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O239" s="33"/>
       <c r="Z239" s="34"/>
@@ -12672,27 +12675,27 @@
         <v>89</v>
       </c>
       <c r="B241" s="32" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C241" s="33"/>
       <c r="O241" s="32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z241" s="34"/>
       <c r="AA241" s="34"/>
     </row>
     <row r="242" s="32" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B242" s="32" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C242" s="33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J242" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L242" s="32" t="n">
         <v>1</v>
@@ -12706,13 +12709,13 @@
         <v>21</v>
       </c>
       <c r="B243" s="32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J243" s="32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O243" s="33"/>
       <c r="Z243" s="34"/>
@@ -12723,14 +12726,14 @@
         <v>21</v>
       </c>
       <c r="B244" s="32" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D244" s="41"/>
       <c r="J244" s="32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z244" s="34"/>
       <c r="AA244" s="34"/>
@@ -12740,7 +12743,7 @@
         <v>88</v>
       </c>
       <c r="B245" s="32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O245" s="33"/>
       <c r="Z245" s="34"/>
@@ -12781,10 +12784,10 @@
         <v>25</v>
       </c>
       <c r="B247" s="32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D247" s="36"/>
       <c r="E247" s="36"/>
@@ -12795,7 +12798,7 @@
       <c r="H247" s="36"/>
       <c r="I247" s="36"/>
       <c r="J247" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K247" s="36"/>
       <c r="L247" s="36"/>
@@ -12820,11 +12823,11 @@
         <v>89</v>
       </c>
       <c r="B248" s="32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C248" s="35"/>
       <c r="O248" s="33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z248" s="34"/>
       <c r="AA248" s="34"/>
@@ -12834,7 +12837,7 @@
         <v>89</v>
       </c>
       <c r="B249" s="32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C249" s="35"/>
       <c r="D249" s="32"/>
@@ -12849,7 +12852,7 @@
       <c r="M249" s="32"/>
       <c r="N249" s="32"/>
       <c r="O249" s="33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P249" s="32"/>
       <c r="Q249" s="32"/>
@@ -12867,13 +12870,13 @@
     </row>
     <row r="250" s="32" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B250" s="36" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D250" s="36"/>
       <c r="E250" s="36"/>
@@ -12882,7 +12885,7 @@
       <c r="H250" s="36"/>
       <c r="I250" s="36"/>
       <c r="J250" s="36" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K250" s="36"/>
       <c r="L250" s="36" t="n">
@@ -12909,26 +12912,26 @@
         <v>44</v>
       </c>
       <c r="B251" s="32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H251" s="32" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I251" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J251" s="32" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L251" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O251" s="33"/>
       <c r="V251" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z251" s="34"/>
       <c r="AA251" s="34"/>
@@ -12938,26 +12941,26 @@
         <v>44</v>
       </c>
       <c r="B252" s="32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H252" s="32" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I252" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J252" s="32" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L252" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O252" s="33"/>
       <c r="V252" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z252" s="34"/>
       <c r="AA252" s="34"/>
@@ -12967,28 +12970,28 @@
         <v>89</v>
       </c>
       <c r="B253" s="32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C253" s="33"/>
       <c r="J253" s="33"/>
       <c r="O253" s="33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z253" s="34"/>
       <c r="AA253" s="34"/>
     </row>
     <row r="254" s="32" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B254" s="32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J254" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L254" s="32" t="n">
         <v>1</v>
@@ -13002,13 +13005,13 @@
         <v>21</v>
       </c>
       <c r="B255" s="32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J255" s="32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O255" s="33"/>
       <c r="Z255" s="34"/>
@@ -13031,28 +13034,28 @@
         <v>89</v>
       </c>
       <c r="B258" s="32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C258" s="33"/>
       <c r="J258" s="33"/>
       <c r="O258" s="33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z258" s="34"/>
       <c r="AA258" s="34"/>
     </row>
     <row r="259" s="32" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B259" s="32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J259" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L259" s="32" t="n">
         <v>1</v>
@@ -13092,13 +13095,13 @@
         <v>21</v>
       </c>
       <c r="B261" s="32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J261" s="32" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O261" s="33"/>
       <c r="Z261" s="34"/>
@@ -13109,14 +13112,14 @@
         <v>21</v>
       </c>
       <c r="B262" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C262" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D262" s="41"/>
       <c r="J262" s="32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z262" s="34"/>
       <c r="AA262" s="34"/>
@@ -13126,7 +13129,7 @@
         <v>88</v>
       </c>
       <c r="B263" s="32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O263" s="33"/>
       <c r="Z263" s="34"/>
@@ -13167,16 +13170,16 @@
         <v>25</v>
       </c>
       <c r="B265" s="32" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G265" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J265" s="32" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O265" s="33"/>
       <c r="Z265" s="34"/>
@@ -13187,11 +13190,11 @@
         <v>89</v>
       </c>
       <c r="B266" s="32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C266" s="35"/>
       <c r="O266" s="33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z266" s="34"/>
       <c r="AA266" s="34"/>
@@ -13201,7 +13204,7 @@
         <v>89</v>
       </c>
       <c r="B267" s="32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C267" s="35"/>
       <c r="D267" s="32"/>
@@ -13216,7 +13219,7 @@
       <c r="M267" s="32"/>
       <c r="N267" s="32"/>
       <c r="O267" s="33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P267" s="32"/>
       <c r="Q267" s="32"/>
@@ -13234,13 +13237,13 @@
     </row>
     <row r="268" s="32" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B268" s="36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D268" s="36"/>
       <c r="E268" s="36"/>
@@ -13249,7 +13252,7 @@
       <c r="H268" s="36"/>
       <c r="I268" s="36"/>
       <c r="J268" s="36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K268" s="36"/>
       <c r="L268" s="36" t="n">
@@ -13276,26 +13279,26 @@
         <v>44</v>
       </c>
       <c r="B269" s="32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H269" s="32" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I269" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J269" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L269" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O269" s="33"/>
       <c r="V269" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z269" s="34"/>
       <c r="AA269" s="34"/>
@@ -13305,26 +13308,26 @@
         <v>44</v>
       </c>
       <c r="B270" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C270" s="35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H270" s="32" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I270" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J270" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L270" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O270" s="33"/>
       <c r="V270" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z270" s="34"/>
       <c r="AA270" s="34"/>
@@ -13334,28 +13337,28 @@
         <v>89</v>
       </c>
       <c r="B271" s="32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C271" s="33"/>
       <c r="J271" s="33"/>
       <c r="O271" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z271" s="34"/>
       <c r="AA271" s="34"/>
     </row>
     <row r="272" s="32" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B272" s="32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J272" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L272" s="32" t="n">
         <v>1</v>
@@ -13369,13 +13372,13 @@
         <v>21</v>
       </c>
       <c r="B273" s="32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C273" s="39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J273" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O273" s="33"/>
       <c r="Z273" s="34"/>
@@ -13386,28 +13389,28 @@
         <v>89</v>
       </c>
       <c r="B274" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C274" s="33"/>
       <c r="J274" s="33"/>
       <c r="O274" s="33" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z274" s="34"/>
       <c r="AA274" s="34"/>
     </row>
     <row r="275" s="32" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B275" s="32" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C275" s="33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J275" s="33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L275" s="32" t="n">
         <v>1</v>
@@ -13421,13 +13424,13 @@
         <v>21</v>
       </c>
       <c r="B276" s="32" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C276" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J276" s="32" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O276" s="33"/>
       <c r="Z276" s="34"/>
@@ -13438,14 +13441,14 @@
         <v>21</v>
       </c>
       <c r="B277" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C277" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D277" s="41"/>
       <c r="J277" s="32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z277" s="34"/>
       <c r="AA277" s="34"/>
@@ -13455,7 +13458,7 @@
         <v>88</v>
       </c>
       <c r="B278" s="32" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O278" s="33"/>
       <c r="Z278" s="34"/>
@@ -13471,10 +13474,10 @@
         <v>25</v>
       </c>
       <c r="B280" s="36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C280" s="42" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D280" s="43"/>
       <c r="E280" s="36"/>
@@ -13485,7 +13488,7 @@
       <c r="H280" s="36"/>
       <c r="I280" s="36"/>
       <c r="J280" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K280" s="36"/>
       <c r="L280" s="36"/>
@@ -13511,10 +13514,10 @@
         <v>21</v>
       </c>
       <c r="B281" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C281" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D281" s="43"/>
       <c r="E281" s="36"/>
@@ -13523,7 +13526,7 @@
       <c r="H281" s="36"/>
       <c r="I281" s="36"/>
       <c r="J281" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K281" s="36"/>
       <c r="L281" s="36"/>
@@ -13549,11 +13552,11 @@
         <v>89</v>
       </c>
       <c r="B282" s="32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C282" s="35"/>
       <c r="O282" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z282" s="34"/>
       <c r="AA282" s="34"/>
@@ -13563,7 +13566,7 @@
         <v>89</v>
       </c>
       <c r="B283" s="32" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C283" s="35"/>
       <c r="D283" s="32"/>
@@ -13578,7 +13581,7 @@
       <c r="M283" s="32"/>
       <c r="N283" s="32"/>
       <c r="O283" s="33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P283" s="32"/>
       <c r="Q283" s="32"/>
@@ -13594,13 +13597,13 @@
     </row>
     <row r="284" s="34" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="32" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B284" s="36" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C284" s="37" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D284" s="36"/>
       <c r="E284" s="36"/>
@@ -13609,7 +13612,7 @@
       <c r="H284" s="36"/>
       <c r="I284" s="36"/>
       <c r="J284" s="36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K284" s="36"/>
       <c r="L284" s="36" t="n">
@@ -13635,26 +13638,26 @@
         <v>44</v>
       </c>
       <c r="B285" s="32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C285" s="35" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H285" s="32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I285" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J285" s="32" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L285" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O285" s="33"/>
       <c r="V285" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z285" s="34"/>
       <c r="AA285" s="34"/>
@@ -13664,26 +13667,26 @@
         <v>44</v>
       </c>
       <c r="B286" s="32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C286" s="35" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H286" s="32" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I286" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J286" s="32" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L286" s="32" t="n">
         <v>1</v>
       </c>
       <c r="O286" s="33"/>
       <c r="V286" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z286" s="34"/>
       <c r="AA286" s="34"/>
@@ -13693,28 +13696,28 @@
         <v>89</v>
       </c>
       <c r="B287" s="32" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C287" s="33"/>
       <c r="J287" s="33"/>
       <c r="O287" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z287" s="34"/>
       <c r="AA287" s="34"/>
     </row>
     <row r="288" s="32" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B288" s="32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L288" s="32" t="n">
         <v>1</v>
@@ -13728,13 +13731,13 @@
         <v>21</v>
       </c>
       <c r="B289" s="32" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C289" s="39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J289" s="32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O289" s="33"/>
       <c r="Z289" s="34"/>
@@ -13745,28 +13748,28 @@
         <v>89</v>
       </c>
       <c r="B290" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C290" s="33"/>
       <c r="J290" s="33"/>
       <c r="O290" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z290" s="34"/>
       <c r="AA290" s="34"/>
     </row>
     <row r="291" s="32" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B291" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J291" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L291" s="32" t="n">
         <v>1</v>
@@ -13780,13 +13783,13 @@
         <v>21</v>
       </c>
       <c r="B292" s="32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C292" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J292" s="32" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O292" s="33"/>
       <c r="Z292" s="34"/>
@@ -13797,14 +13800,14 @@
         <v>21</v>
       </c>
       <c r="B293" s="32" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C293" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D293" s="41"/>
       <c r="J293" s="32" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z293" s="34"/>
       <c r="AA293" s="34"/>
@@ -13814,7 +13817,7 @@
         <v>88</v>
       </c>
       <c r="B294" s="32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O294" s="33"/>
       <c r="Z294" s="34"/>
@@ -13855,10 +13858,10 @@
         <v>25</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D296" s="17"/>
       <c r="E296" s="1"/>
@@ -13869,7 +13872,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
@@ -13892,13 +13895,13 @@
     </row>
     <row r="297" s="32" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D297" s="17"/>
       <c r="E297" s="1"/>
@@ -13933,7 +13936,7 @@
         <v>89</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C298" s="22"/>
       <c r="D298" s="1"/>
@@ -13948,7 +13951,7 @@
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
@@ -13992,13 +13995,13 @@
     </row>
     <row r="300" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D300" s="17"/>
       <c r="E300" s="1"/>
@@ -14007,7 +14010,7 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K300" s="1"/>
       <c r="L300" s="1" t="n">
@@ -14032,14 +14035,14 @@
         <v>21</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D301" s="17"/>
       <c r="J301" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z301" s="11"/>
       <c r="AA301" s="11"/>
@@ -14050,10 +14053,10 @@
         <v>21</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C302" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D302" s="21"/>
       <c r="E302" s="11"/>
@@ -14062,7 +14065,7 @@
       <c r="H302" s="11"/>
       <c r="I302" s="11"/>
       <c r="J302" s="11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K302" s="11"/>
       <c r="L302" s="11"/>
@@ -14088,10 +14091,10 @@
         <v>44</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D303" s="17"/>
       <c r="E303" s="1"/>
@@ -14100,14 +14103,14 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
@@ -14125,7 +14128,7 @@
         <v>88</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="1"/>
@@ -14140,7 +14143,7 @@
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
@@ -14217,29 +14220,29 @@
         <v>25</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z307" s="11"/>
       <c r="AA307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D308" s="17"/>
       <c r="L308" s="1" t="n">
@@ -14254,11 +14257,11 @@
         <v>89</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C309" s="22"/>
       <c r="O309" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Z309" s="11"/>
       <c r="AA309" s="11"/>
@@ -14272,13 +14275,13 @@
     </row>
     <row r="311" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D311" s="17"/>
       <c r="E311" s="1"/>
@@ -14287,7 +14290,7 @@
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K311" s="1"/>
       <c r="L311" s="1" t="n">
@@ -14312,17 +14315,17 @@
         <v>44</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D312" s="17"/>
       <c r="J312" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O312" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z312" s="11"/>
       <c r="AA312" s="11"/>
@@ -14333,14 +14336,14 @@
         <v>21</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D313" s="17"/>
       <c r="J313" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z313" s="11"/>
       <c r="AA313" s="11"/>
@@ -14351,14 +14354,14 @@
         <v>21</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D314" s="21"/>
       <c r="J314" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="315" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14366,7 +14369,7 @@
         <v>88</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="17"/>
@@ -14451,10 +14454,10 @@
         <v>25</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D318" s="17"/>
       <c r="E318" s="1"/>
@@ -14465,7 +14468,7 @@
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -14485,13 +14488,13 @@
     </row>
     <row r="319" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D319" s="17"/>
       <c r="E319" s="1"/>
@@ -14500,7 +14503,7 @@
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1" t="n">
@@ -14525,10 +14528,10 @@
         <v>21</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D320" s="17"/>
       <c r="E320" s="1"/>
@@ -14537,7 +14540,7 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -14560,7 +14563,7 @@
         <v>89</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C321" s="22"/>
       <c r="D321" s="1"/>
@@ -14575,7 +14578,7 @@
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
@@ -14619,13 +14622,13 @@
     </row>
     <row r="323" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="1"/>
@@ -14634,7 +14637,7 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1" t="n">
@@ -14659,14 +14662,14 @@
         <v>44</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D324" s="17"/>
       <c r="J324" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O324" s="8"/>
       <c r="Z324" s="11"/>
@@ -14678,14 +14681,14 @@
         <v>21</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D325" s="17"/>
       <c r="J325" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z325" s="11"/>
       <c r="AA325" s="11"/>
@@ -14696,14 +14699,14 @@
         <v>21</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D326" s="21"/>
       <c r="J326" s="11" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="327" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14711,7 +14714,7 @@
         <v>88</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C327" s="18"/>
       <c r="D327" s="19"/>
@@ -14746,10 +14749,10 @@
         <v>25</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D329" s="17"/>
       <c r="E329" s="1"/>
@@ -14760,7 +14763,7 @@
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="44" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -14780,13 +14783,13 @@
     </row>
     <row r="330" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D330" s="17"/>
       <c r="E330" s="1"/>
@@ -14818,10 +14821,10 @@
         <v>44</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D331" s="17"/>
       <c r="E331" s="1"/>
@@ -14830,7 +14833,7 @@
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -14853,7 +14856,7 @@
         <v>89</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C332" s="22"/>
       <c r="D332" s="1"/>
@@ -14868,7 +14871,7 @@
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
@@ -14912,13 +14915,13 @@
     </row>
     <row r="334" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D334" s="17"/>
       <c r="E334" s="1"/>
@@ -14927,7 +14930,7 @@
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K334" s="1"/>
       <c r="L334" s="1" t="n">
@@ -14952,14 +14955,14 @@
         <v>21</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D335" s="17"/>
       <c r="J335" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Z335" s="11"/>
       <c r="AA335" s="11"/>
@@ -14970,10 +14973,10 @@
         <v>21</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D336" s="21"/>
       <c r="E336" s="11"/>
@@ -14982,7 +14985,7 @@
       <c r="H336" s="11"/>
       <c r="I336" s="11"/>
       <c r="J336" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K336" s="11"/>
       <c r="L336" s="11"/>
@@ -15008,7 +15011,7 @@
         <v>88</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C337" s="18"/>
       <c r="D337" s="19"/>
@@ -15039,10 +15042,10 @@
         <v>25</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -15075,10 +15078,10 @@
         <v>21</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -15109,7 +15112,7 @@
         <v>89</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="1"/>
@@ -15124,7 +15127,7 @@
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
@@ -15143,13 +15146,13 @@
         <v>21</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z341" s="11"/>
       <c r="AA341" s="11"/>
@@ -15159,10 +15162,10 @@
         <v>89</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O342" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z342" s="11"/>
       <c r="AA342" s="11"/>
@@ -15172,13 +15175,13 @@
         <v>21</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z343" s="11"/>
       <c r="AA343" s="11"/>
@@ -15188,10 +15191,10 @@
         <v>89</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O344" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z344" s="11"/>
       <c r="AA344" s="11"/>
@@ -15201,13 +15204,13 @@
         <v>21</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z345" s="11"/>
       <c r="AA345" s="11"/>
@@ -15217,10 +15220,10 @@
         <v>89</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O346" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z346" s="11"/>
       <c r="AA346" s="11"/>
@@ -15230,13 +15233,13 @@
         <v>21</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z347" s="11"/>
       <c r="AA347" s="11"/>
@@ -15246,10 +15249,10 @@
         <v>89</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O348" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Z348" s="11"/>
       <c r="AA348" s="11"/>
@@ -15259,13 +15262,13 @@
         <v>21</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Z349" s="11"/>
       <c r="AA349" s="11"/>
@@ -15287,10 +15290,10 @@
         <v>89</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O352" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Z352" s="11"/>
       <c r="AA352" s="11"/>
@@ -15300,13 +15303,13 @@
         <v>21</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z353" s="11"/>
       <c r="AA353" s="11"/>
@@ -15316,10 +15319,10 @@
         <v>89</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O354" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Z354" s="11"/>
       <c r="AA354" s="11"/>
@@ -15329,13 +15332,13 @@
         <v>21</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z355" s="11"/>
       <c r="AA355" s="11"/>
@@ -15345,10 +15348,10 @@
         <v>89</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O356" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z356" s="11"/>
       <c r="AA356" s="11"/>
@@ -15358,13 +15361,13 @@
         <v>21</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Z357" s="11"/>
       <c r="AA357" s="11"/>
@@ -15374,7 +15377,7 @@
         <v>89</v>
       </c>
       <c r="B358" s="36" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C358" s="42"/>
       <c r="D358" s="36"/>
@@ -15389,7 +15392,7 @@
       <c r="M358" s="36"/>
       <c r="N358" s="36"/>
       <c r="O358" s="36" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P358" s="36"/>
       <c r="Q358" s="36"/>
@@ -15410,10 +15413,10 @@
         <v>21</v>
       </c>
       <c r="B359" s="36" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C359" s="45" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D359" s="36"/>
       <c r="E359" s="36"/>
@@ -15422,7 +15425,7 @@
       <c r="H359" s="36"/>
       <c r="I359" s="36"/>
       <c r="J359" s="36" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K359" s="36"/>
       <c r="L359" s="36"/>
@@ -15448,7 +15451,7 @@
         <v>89</v>
       </c>
       <c r="B360" s="36" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C360" s="42"/>
       <c r="D360" s="36"/>
@@ -15463,7 +15466,7 @@
       <c r="M360" s="36"/>
       <c r="N360" s="36"/>
       <c r="O360" s="36" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="P360" s="36"/>
       <c r="Q360" s="36"/>
@@ -15484,10 +15487,10 @@
         <v>21</v>
       </c>
       <c r="B361" s="36" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C361" s="45" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D361" s="36"/>
       <c r="E361" s="36"/>
@@ -15496,7 +15499,7 @@
       <c r="H361" s="36"/>
       <c r="I361" s="36"/>
       <c r="J361" s="36" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K361" s="36"/>
       <c r="L361" s="36"/>
@@ -15521,7 +15524,7 @@
         <v>89</v>
       </c>
       <c r="B362" s="36" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C362" s="42"/>
       <c r="D362" s="36"/>
@@ -15536,7 +15539,7 @@
       <c r="M362" s="36"/>
       <c r="N362" s="36"/>
       <c r="O362" s="36" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P362" s="36"/>
       <c r="Q362" s="36"/>
@@ -15557,10 +15560,10 @@
         <v>21</v>
       </c>
       <c r="B363" s="36" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C363" s="45" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D363" s="36"/>
       <c r="E363" s="36"/>
@@ -15569,7 +15572,7 @@
       <c r="H363" s="36"/>
       <c r="I363" s="36"/>
       <c r="J363" s="36" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K363" s="36"/>
       <c r="L363" s="36"/>
@@ -15624,7 +15627,7 @@
         <v>89</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="1"/>
@@ -15639,7 +15642,7 @@
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
@@ -15660,10 +15663,10 @@
         <v>21</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -15672,7 +15675,7 @@
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
@@ -15698,7 +15701,7 @@
         <v>89</v>
       </c>
       <c r="B367" s="36" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C367" s="46"/>
       <c r="D367" s="36"/>
@@ -15713,7 +15716,7 @@
       <c r="M367" s="36"/>
       <c r="N367" s="36"/>
       <c r="O367" s="36" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P367" s="36"/>
       <c r="Q367" s="36"/>
@@ -15734,10 +15737,10 @@
         <v>21</v>
       </c>
       <c r="B368" s="36" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C368" s="45" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D368" s="36"/>
       <c r="E368" s="36"/>
@@ -15746,7 +15749,7 @@
       <c r="H368" s="36"/>
       <c r="I368" s="36"/>
       <c r="J368" s="36" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K368" s="36"/>
       <c r="L368" s="36"/>
@@ -15772,7 +15775,7 @@
         <v>89</v>
       </c>
       <c r="B369" s="36" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C369" s="42"/>
       <c r="D369" s="36"/>
@@ -15787,7 +15790,7 @@
       <c r="M369" s="36"/>
       <c r="N369" s="36"/>
       <c r="O369" s="36" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P369" s="36"/>
       <c r="Q369" s="36"/>
@@ -15808,10 +15811,10 @@
         <v>21</v>
       </c>
       <c r="B370" s="36" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C370" s="45" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D370" s="36"/>
       <c r="E370" s="36"/>
@@ -15820,7 +15823,7 @@
       <c r="H370" s="36"/>
       <c r="I370" s="36"/>
       <c r="J370" s="36" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K370" s="36"/>
       <c r="L370" s="36"/>
@@ -15846,7 +15849,7 @@
         <v>89</v>
       </c>
       <c r="B371" s="36" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C371" s="45"/>
       <c r="D371" s="36"/>
@@ -15861,7 +15864,7 @@
       <c r="M371" s="36"/>
       <c r="N371" s="36"/>
       <c r="O371" s="36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="P371" s="36"/>
       <c r="Q371" s="36"/>
@@ -15882,10 +15885,10 @@
         <v>21</v>
       </c>
       <c r="B372" s="36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C372" s="45" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D372" s="36"/>
       <c r="E372" s="36"/>
@@ -15894,7 +15897,7 @@
       <c r="H372" s="36"/>
       <c r="I372" s="36"/>
       <c r="J372" s="36" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K372" s="36"/>
       <c r="L372" s="36"/>
@@ -15920,7 +15923,7 @@
         <v>89</v>
       </c>
       <c r="B373" s="36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C373" s="42"/>
       <c r="D373" s="36"/>
@@ -15935,7 +15938,7 @@
       <c r="M373" s="36"/>
       <c r="N373" s="36"/>
       <c r="O373" s="36" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P373" s="36"/>
       <c r="Q373" s="36"/>
@@ -15956,10 +15959,10 @@
         <v>21</v>
       </c>
       <c r="B374" s="36" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C374" s="45" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D374" s="36"/>
       <c r="E374" s="36"/>
@@ -15968,7 +15971,7 @@
       <c r="H374" s="36"/>
       <c r="I374" s="36"/>
       <c r="J374" s="36" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K374" s="36"/>
       <c r="L374" s="36"/>
@@ -15993,7 +15996,7 @@
         <v>89</v>
       </c>
       <c r="B375" s="36" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C375" s="42"/>
       <c r="D375" s="36"/>
@@ -16008,7 +16011,7 @@
       <c r="M375" s="36"/>
       <c r="N375" s="36"/>
       <c r="O375" s="36" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P375" s="36"/>
       <c r="Q375" s="36"/>
@@ -16029,10 +16032,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="36" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C376" s="45" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D376" s="36"/>
       <c r="E376" s="36"/>
@@ -16041,7 +16044,7 @@
       <c r="H376" s="36"/>
       <c r="I376" s="36"/>
       <c r="J376" s="36" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K376" s="36"/>
       <c r="L376" s="36"/>
@@ -16067,7 +16070,7 @@
         <v>89</v>
       </c>
       <c r="B377" s="36" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C377" s="42"/>
       <c r="D377" s="36"/>
@@ -16082,7 +16085,7 @@
       <c r="M377" s="36"/>
       <c r="N377" s="36"/>
       <c r="O377" s="36" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P377" s="36"/>
       <c r="Q377" s="36"/>
@@ -16103,10 +16106,10 @@
         <v>21</v>
       </c>
       <c r="B378" s="36" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C378" s="45" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D378" s="36"/>
       <c r="E378" s="36"/>
@@ -16115,7 +16118,7 @@
       <c r="H378" s="36"/>
       <c r="I378" s="36"/>
       <c r="J378" s="36" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K378" s="36"/>
       <c r="L378" s="36"/>
@@ -16141,7 +16144,7 @@
         <v>89</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="1"/>
@@ -16156,7 +16159,7 @@
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
@@ -16177,10 +16180,10 @@
         <v>21</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -16189,7 +16192,7 @@
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
@@ -16215,10 +16218,10 @@
         <v>89</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O381" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z381" s="11"/>
       <c r="AA381" s="11"/>
@@ -16228,13 +16231,13 @@
         <v>21</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Z382" s="11"/>
       <c r="AA382" s="11"/>
@@ -16244,10 +16247,10 @@
         <v>89</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O383" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z383" s="11"/>
       <c r="AA383" s="11"/>
@@ -16257,13 +16260,13 @@
         <v>21</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Z384" s="11"/>
       <c r="AA384" s="11"/>
@@ -16278,13 +16281,13 @@
         <v>21</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O386" s="8"/>
       <c r="Z386" s="11"/>
@@ -16295,13 +16298,13 @@
         <v>21</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O387" s="8"/>
       <c r="Z387" s="11"/>
@@ -16312,7 +16315,7 @@
         <v>88</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D388" s="17"/>
       <c r="O388" s="10"/>
@@ -41395,7 +41398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -41409,11 +41412,11 @@
       <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="53" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="53" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="53" width="39.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="53" width="39.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="53" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="14.12"/>
@@ -41421,299 +41424,299 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B2" s="53" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L2" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="53" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B3" s="53" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="56" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B4" s="56" t="n">
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="56" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B5" s="56" t="n">
         <v>9</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B6" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B7" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B8" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="56" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B9" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="56" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B10" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="56" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B11" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="56" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B12" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="56" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B13" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="56" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B14" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="56" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B15" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B16" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B17" s="56" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="56" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B18" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="56" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B19" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B20" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B21" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B22" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="57" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B23" s="57" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="57" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B24" s="57" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="57" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B25" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="57" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B26" s="57" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41723,37 +41726,37 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="53" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B28" s="57" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="53" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B29" s="57" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="53" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B30" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H30" s="58"/>
     </row>
@@ -41764,37 +41767,37 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B32" s="57" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B33" s="57" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B34" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H34" s="58"/>
     </row>
@@ -41805,35 +41808,35 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="53" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B36" s="57" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="53" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B37" s="57" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="53" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B38" s="57" t="n">
         <v>2</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H38" s="58"/>
     </row>
@@ -41844,145 +41847,145 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B40" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H40" s="58"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="56" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B41" s="56" t="n">
         <v>2</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H41" s="58"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="56" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B42" s="56" t="n">
         <v>3</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H42" s="58"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="56" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B43" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H43" s="58"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="56" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B44" s="59" t="n">
         <v>2</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H44" s="58"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="56" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B45" s="59" t="n">
         <v>3</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H45" s="58"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B46" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H46" s="58"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B47" s="59" t="n">
         <v>2</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H47" s="58"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B48" s="59" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H48" s="58"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B49" s="59" t="n">
         <v>4</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H49" s="58"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="56" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B50" s="56" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H50" s="58"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="56" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B51" s="56" t="n">
         <v>-1</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H51" s="58"/>
     </row>
@@ -43286,7 +43289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43296,7 +43299,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="25" width="13.25"/>
@@ -43307,46 +43310,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="68" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C2" s="53" t="str">
         <f aca="true">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2306171515</v>
+        <v>2307061521</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="70"/>
       <c r="F2" s="53" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -43361,7 +43364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43371,7 +43374,7 @@
       <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="25" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="36"/>
@@ -43380,7 +43383,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B1" s="71"/>
     </row>
@@ -43390,7 +43393,7 @@
     </row>
     <row r="3" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B3" s="73"/>
     </row>
@@ -43402,16 +43405,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>5</v>
@@ -43423,10 +43426,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>9</v>
@@ -43438,10 +43441,10 @@
         <v>11</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>13</v>
@@ -43453,22 +43456,22 @@
         <v>15</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Z5" s="6" t="s">
         <v>19</v>
@@ -43488,99 +43491,99 @@
     </row>
     <row r="6" s="76" customFormat="true" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="K6" s="75" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L6" s="75" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="M6" s="75" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N6" s="75" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O6" s="75" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Q6" s="75" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="U6" s="75" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="V6" s="75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="W6" s="75" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="X6" s="75" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="Y6" s="75" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Z6" s="75" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AA6" s="75" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AB6" s="75" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AC6" s="75" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AD6" s="75" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="77" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="78"/>
@@ -43614,13 +43617,13 @@
     </row>
     <row r="10" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="81" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -43652,20 +43655,20 @@
     </row>
     <row r="11" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="81" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
       <c r="H11" s="81" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
@@ -43692,13 +43695,13 @@
     </row>
     <row r="12" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -43730,13 +43733,13 @@
     </row>
     <row r="13" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="81" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -43768,13 +43771,13 @@
     </row>
     <row r="14" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -43806,20 +43809,20 @@
     </row>
     <row r="15" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
@@ -43846,20 +43849,20 @@
     </row>
     <row r="16" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
       <c r="G16" s="81"/>
       <c r="H16" s="81" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
@@ -43886,20 +43889,20 @@
     </row>
     <row r="17" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
       <c r="H17" s="81" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
@@ -43926,20 +43929,20 @@
     </row>
     <row r="18" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
@@ -43966,20 +43969,20 @@
     </row>
     <row r="19" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
@@ -44006,20 +44009,20 @@
     </row>
     <row r="20" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
@@ -44046,20 +44049,20 @@
     </row>
     <row r="21" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
@@ -44086,20 +44089,20 @@
     </row>
     <row r="22" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
@@ -44126,20 +44129,20 @@
     </row>
     <row r="23" s="80" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
@@ -44166,20 +44169,20 @@
     </row>
     <row r="24" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
       <c r="H24" s="81" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
@@ -44206,20 +44209,20 @@
     </row>
     <row r="25" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
@@ -44246,20 +44249,20 @@
     </row>
     <row r="26" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
@@ -44286,20 +44289,20 @@
     </row>
     <row r="27" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="81" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
@@ -44326,20 +44329,20 @@
     </row>
     <row r="28" s="80" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="81"/>
       <c r="H28" s="81" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
@@ -44366,13 +44369,13 @@
     </row>
     <row r="29" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
@@ -44404,20 +44407,20 @@
     </row>
     <row r="30" s="80" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
@@ -44444,20 +44447,20 @@
     </row>
     <row r="31" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
@@ -44484,20 +44487,20 @@
     </row>
     <row r="32" s="80" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
       <c r="H32" s="81" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I32" s="81"/>
       <c r="J32" s="81"/>
@@ -44524,20 +44527,20 @@
     </row>
     <row r="33" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
       <c r="F33" s="81"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I33" s="81"/>
       <c r="J33" s="81"/>
@@ -44564,20 +44567,20 @@
     </row>
     <row r="34" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
@@ -44604,20 +44607,20 @@
     </row>
     <row r="35" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I35" s="81"/>
       <c r="J35" s="81"/>
@@ -44644,20 +44647,20 @@
     </row>
     <row r="36" s="80" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
       <c r="H36" s="81" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I36" s="81"/>
       <c r="J36" s="81"/>
@@ -44684,20 +44687,20 @@
     </row>
     <row r="37" s="80" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="81" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
       <c r="G37" s="81"/>
       <c r="H37" s="81" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I37" s="81"/>
       <c r="J37" s="81"/>
@@ -44724,13 +44727,13 @@
     </row>
     <row r="38" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="81" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
@@ -44762,13 +44765,13 @@
     </row>
     <row r="39" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="81" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D39" s="81"/>
       <c r="E39" s="81"/>
@@ -44800,13 +44803,13 @@
     </row>
     <row r="40" s="80" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="81" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
@@ -44838,13 +44841,13 @@
     </row>
     <row r="41" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="81" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D41" s="81"/>
       <c r="E41" s="81"/>
@@ -44879,10 +44882,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
@@ -44917,17 +44920,17 @@
         <v>44</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
       <c r="H43" s="81" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I43" s="81"/>
       <c r="J43" s="81"/>
@@ -44954,13 +44957,13 @@
     </row>
     <row r="44" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="81" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D44" s="81"/>
       <c r="E44" s="81"/>
@@ -44992,20 +44995,20 @@
     </row>
     <row r="45" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="81" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D45" s="81"/>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I45" s="81"/>
       <c r="J45" s="81"/>
@@ -45032,13 +45035,13 @@
     </row>
     <row r="46" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
@@ -45070,20 +45073,20 @@
     </row>
     <row r="47" s="80" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="81" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
       <c r="H47" s="81" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I47" s="81"/>
       <c r="J47" s="81"/>
@@ -45110,20 +45113,20 @@
     </row>
     <row r="48" s="80" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="81" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
       <c r="G48" s="81"/>
       <c r="H48" s="81" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I48" s="81"/>
       <c r="J48" s="81"/>
@@ -45150,20 +45153,20 @@
     </row>
     <row r="49" s="80" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="81" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
       <c r="G49" s="81"/>
       <c r="H49" s="81" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I49" s="81"/>
       <c r="J49" s="81"/>
@@ -45190,13 +45193,13 @@
     </row>
     <row r="50" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="81" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
@@ -45228,13 +45231,13 @@
     </row>
     <row r="51" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="81" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
@@ -45266,13 +45269,13 @@
     </row>
     <row r="52" s="80" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="81" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
@@ -45307,10 +45310,10 @@
         <v>21</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
@@ -45342,10 +45345,10 @@
     </row>
     <row r="54" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="81" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B54" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C54" s="82"/>
       <c r="D54" s="81"/>
@@ -45378,10 +45381,10 @@
     </row>
     <row r="55" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="81" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C55" s="82"/>
       <c r="D55" s="81"/>
@@ -45414,10 +45417,10 @@
     </row>
     <row r="56" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="81" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B56" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C56" s="82"/>
       <c r="D56" s="81"/>
@@ -45450,10 +45453,10 @@
     </row>
     <row r="57" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="81" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B57" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C57" s="82"/>
       <c r="D57" s="81"/>
@@ -45486,10 +45489,10 @@
     </row>
     <row r="58" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="81" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B58" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C58" s="82"/>
       <c r="D58" s="81"/>
@@ -45522,10 +45525,10 @@
     </row>
     <row r="59" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="81" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B59" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C59" s="82"/>
       <c r="D59" s="81"/>
@@ -45558,10 +45561,10 @@
     </row>
     <row r="60" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="81" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="81"/>
@@ -45594,10 +45597,10 @@
     </row>
     <row r="61" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="81" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B61" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C61" s="82"/>
       <c r="D61" s="81"/>
@@ -45633,7 +45636,7 @@
         <v>89</v>
       </c>
       <c r="B62" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C62" s="82"/>
       <c r="D62" s="81"/>
@@ -45651,7 +45654,7 @@
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="R62" s="81" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="S62" s="81"/>
       <c r="T62" s="81"/>
@@ -45668,10 +45671,10 @@
     </row>
     <row r="63" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="81" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B63" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C63" s="82"/>
       <c r="D63" s="81"/>
@@ -45689,7 +45692,7 @@
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="R63" s="81" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="S63" s="81"/>
       <c r="T63" s="81"/>
@@ -45706,10 +45709,10 @@
     </row>
     <row r="64" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="81" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B64" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C64" s="82"/>
       <c r="D64" s="81"/>
@@ -45717,7 +45720,7 @@
       <c r="F64" s="81"/>
       <c r="G64" s="81"/>
       <c r="H64" s="81" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I64" s="81"/>
       <c r="J64" s="81"/>
@@ -45744,10 +45747,10 @@
     </row>
     <row r="65" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="81" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B65" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C65" s="82"/>
       <c r="D65" s="81"/>
@@ -45755,7 +45758,7 @@
       <c r="F65" s="81"/>
       <c r="G65" s="81"/>
       <c r="H65" s="81" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="I65" s="81"/>
       <c r="J65" s="81"/>
@@ -45782,10 +45785,10 @@
     </row>
     <row r="66" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="81" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B66" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C66" s="82"/>
       <c r="D66" s="81"/>
@@ -45793,7 +45796,7 @@
       <c r="F66" s="81"/>
       <c r="G66" s="81"/>
       <c r="H66" s="81" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="I66" s="81"/>
       <c r="J66" s="81"/>
@@ -45820,10 +45823,10 @@
     </row>
     <row r="67" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="81" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B67" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C67" s="82"/>
       <c r="D67" s="81"/>
@@ -45831,7 +45834,7 @@
       <c r="F67" s="81"/>
       <c r="G67" s="81"/>
       <c r="H67" s="81" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I67" s="81"/>
       <c r="J67" s="81"/>
@@ -45861,10 +45864,10 @@
         <v>25</v>
       </c>
       <c r="B68" s="81" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D68" s="81"/>
       <c r="E68" s="81"/>
@@ -45896,7 +45899,7 @@
     </row>
     <row r="69" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="81" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B69" s="81"/>
       <c r="C69" s="82"/>
@@ -45933,7 +45936,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="81" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C70" s="82"/>
       <c r="D70" s="81"/>
@@ -45966,13 +45969,13 @@
     </row>
     <row r="71" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="81" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B71" s="81" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
@@ -46004,7 +46007,7 @@
     </row>
     <row r="72" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="81" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B72" s="81"/>
       <c r="C72" s="82"/>
@@ -46038,10 +46041,10 @@
     </row>
     <row r="73" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="81" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B73" s="81" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C73" s="82"/>
       <c r="D73" s="81"/>
@@ -46074,13 +46077,13 @@
     </row>
     <row r="74" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="81" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B74" s="81" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
@@ -46114,7 +46117,7 @@
     </row>
     <row r="75" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="81" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B75" s="81"/>
       <c r="C75" s="82"/>
@@ -46148,10 +46151,10 @@
     </row>
     <row r="76" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="81" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B76" s="81" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C76" s="82"/>
       <c r="D76" s="81"/>
@@ -46184,10 +46187,10 @@
     </row>
     <row r="77" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="81" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C77" s="82"/>
       <c r="D77" s="81"/>
@@ -46220,10 +46223,10 @@
     </row>
     <row r="78" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="81" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B78" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C78" s="82"/>
       <c r="D78" s="81"/>
@@ -46256,10 +46259,10 @@
     </row>
     <row r="79" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="81" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C79" s="82"/>
       <c r="D79" s="81"/>
@@ -46267,7 +46270,7 @@
       <c r="F79" s="81"/>
       <c r="G79" s="81"/>
       <c r="H79" s="81" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I79" s="81"/>
       <c r="J79" s="81"/>
@@ -46294,10 +46297,10 @@
     </row>
     <row r="80" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="81" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B80" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C80" s="82"/>
       <c r="D80" s="81"/>
@@ -46305,7 +46308,7 @@
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
       <c r="H80" s="81" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="I80" s="81"/>
       <c r="J80" s="81"/>
@@ -46332,10 +46335,10 @@
     </row>
     <row r="81" s="80" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="81" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C81" s="82"/>
       <c r="D81" s="81"/>
@@ -46343,7 +46346,7 @@
       <c r="F81" s="81"/>
       <c r="G81" s="81"/>
       <c r="H81" s="81" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I81" s="81"/>
       <c r="J81" s="81"/>
@@ -46370,7 +46373,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="85" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B83" s="85"/>
       <c r="C83" s="86"/>
@@ -46404,27 +46407,27 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="88" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B85" s="88" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C85" s="88" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D85" s="88" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="89" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B86" s="89" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C86" s="89" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D86" s="89" t="n">
         <v>2</v>
@@ -46432,10 +46435,10 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="89" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B87" s="89" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C87" s="90" t="str">
         <f aca="false">"3 - 2"</f>
@@ -46447,13 +46450,13 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="89" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B88" s="89" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C88" s="89" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D88" s="89" t="n">
         <v>6</v>
@@ -46461,13 +46464,13 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="89" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B89" s="89" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C89" s="89" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D89" s="89" t="n">
         <v>5</v>
@@ -46475,13 +46478,13 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="89" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B90" s="89" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C90" s="89" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D90" s="89" t="n">
         <v>1</v>
@@ -46489,128 +46492,128 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="89" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B91" s="89" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C91" s="89" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D91" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="89" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B92" s="89" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C92" s="89" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D92" s="89" t="s">
         <v>1005</v>
-      </c>
-      <c r="B92" s="89" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C92" s="89" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D92" s="89" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="89" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B93" s="89" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D93" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="89" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B94" s="89" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C94" s="89" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D94" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="89" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B95" s="89" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C95" s="89" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D95" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="89" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B96" s="89" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D96" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="89" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B97" s="89" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C97" s="89" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D97" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="89" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B98" s="89" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C98" s="89" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D98" s="89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="89" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B99" s="89" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C99" s="89" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D99" s="89" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46622,540 +46625,540 @@
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="87"/>
       <c r="B101" s="88" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C101" s="88" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D101" s="87"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="87"/>
       <c r="B102" s="91" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C102" s="92" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D102" s="87"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="87"/>
       <c r="B103" s="92" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C103" s="92" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D103" s="87"/>
     </row>
     <row r="104" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="87"/>
       <c r="B104" s="92" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C104" s="92" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D104" s="87"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="87"/>
       <c r="B105" s="92" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D105" s="87"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="87"/>
       <c r="B106" s="92" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D106" s="87"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="87"/>
       <c r="B107" s="92" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D107" s="87"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="87"/>
       <c r="B108" s="92" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C108" s="92" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D108" s="87"/>
     </row>
     <row r="109" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="87"/>
       <c r="B109" s="92" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C109" s="92" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D109" s="87"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="87"/>
       <c r="B110" s="92" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C110" s="92" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D110" s="87"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="87"/>
       <c r="B111" s="92" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C111" s="92" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D111" s="87"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="87"/>
       <c r="B112" s="92" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C112" s="92" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D112" s="87"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="87"/>
       <c r="B113" s="92" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C113" s="92" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D113" s="87"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="87"/>
       <c r="B114" s="92" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C114" s="92" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D114" s="87"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="87"/>
       <c r="B115" s="92" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C115" s="92" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D115" s="87"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="87"/>
       <c r="B116" s="92" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C116" s="92" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D116" s="87"/>
     </row>
     <row r="117" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="87"/>
       <c r="B117" s="92" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C117" s="92" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D117" s="87"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="87"/>
       <c r="B118" s="92" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C118" s="92" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D118" s="87"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="87"/>
       <c r="B119" s="92" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C119" s="92" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D119" s="87"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="87"/>
       <c r="B120" s="92" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C120" s="92" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D120" s="87"/>
     </row>
     <row r="121" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="87"/>
       <c r="B121" s="92" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C121" s="92" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D121" s="87"/>
     </row>
     <row r="122" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="87"/>
       <c r="B122" s="92" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C122" s="92" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D122" s="87"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="87"/>
       <c r="B123" s="92" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C123" s="92" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D123" s="87"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="87"/>
       <c r="B124" s="92" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C124" s="92" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D124" s="87"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="87"/>
       <c r="B125" s="92" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C125" s="92" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D125" s="87"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="87"/>
       <c r="B126" s="92" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C126" s="92" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D126" s="87"/>
     </row>
     <row r="127" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="87"/>
       <c r="B127" s="92" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C127" s="92" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D127" s="87"/>
     </row>
     <row r="128" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="87"/>
       <c r="B128" s="92" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C128" s="92" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D128" s="87"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="87"/>
       <c r="B129" s="93" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C129" s="93" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D129" s="87"/>
     </row>
     <row r="130" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="87"/>
       <c r="B130" s="93" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C130" s="93" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D130" s="87"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="87"/>
       <c r="B131" s="93" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C131" s="93" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D131" s="87"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="87"/>
       <c r="B132" s="93" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C132" s="93" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D132" s="87"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="87"/>
       <c r="B133" s="93" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C133" s="93" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D133" s="87"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="87"/>
       <c r="B134" s="93" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C134" s="93" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D134" s="87"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="87"/>
       <c r="B135" s="93" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C135" s="93" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D135" s="87"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="87"/>
       <c r="B136" s="93" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C136" s="93" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D136" s="87"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="87"/>
       <c r="B137" s="93" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C137" s="93" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D137" s="87"/>
     </row>
     <row r="138" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="87"/>
       <c r="B138" s="93" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C138" s="93" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D138" s="87"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="87"/>
       <c r="B139" s="93" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C139" s="93" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D139" s="87"/>
     </row>
     <row r="140" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="87"/>
       <c r="B140" s="93" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C140" s="93" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D140" s="87"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="87"/>
       <c r="B141" s="93" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C141" s="93" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D141" s="87"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="87"/>
       <c r="B142" s="93" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C142" s="93" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D142" s="87"/>
     </row>
     <row r="143" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="87"/>
       <c r="B143" s="93" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C143" s="93" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D143" s="87"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="87"/>
       <c r="B144" s="93" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C144" s="93" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D144" s="87"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="87"/>
       <c r="B145" s="93" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C145" s="93" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D145" s="87"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="87"/>
       <c r="B146" s="93" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C146" s="93" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D146" s="87"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="87"/>
       <c r="B147" s="93" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C147" s="93" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D147" s="87"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="87"/>
       <c r="B148" s="93" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C148" s="93" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D148" s="87"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="87"/>
       <c r="B149" s="93" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C149" s="93" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D149" s="87"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="87"/>
       <c r="B150" s="93" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C150" s="93" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D150" s="87"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="87"/>
       <c r="B151" s="93" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C151" s="93" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D151" s="87"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="87"/>
       <c r="B152" s="93" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C152" s="93" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D152" s="87"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="87"/>
       <c r="B153" s="93" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C153" s="93" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D153" s="87"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="87"/>
       <c r="B154" s="93" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C154" s="93" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D154" s="87"/>
     </row>
@@ -47326,7 +47329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -47336,14 +47339,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="25" width="36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="71"/>
     </row>
@@ -47353,54 +47356,54 @@
     </row>
     <row r="3" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B3" s="73"/>
     </row>
     <row r="5" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="54" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="true" ht="204.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H6" s="75"/>
     </row>
@@ -47421,7 +47424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -47431,14 +47434,14 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="25" width="36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="96"/>
@@ -47456,7 +47459,7 @@
     </row>
     <row r="3" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="96"/>
@@ -47474,43 +47477,43 @@
     </row>
     <row r="5" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="97" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" s="76" customFormat="true" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
